--- a/color_wise_output.xlsx
+++ b/color_wise_output.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,12 +608,12 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>2025/9783</t>
+          <t>2025/10699</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>D16396-GD-25Q4</t>
+          <t>D27978-GD-25Q4</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -623,12 +623,12 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">D149-Iceberg Green Gd RFD </t>
+          <t xml:space="preserve">B564- Dk Black Gd </t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>D149-Iceberg Green Gd</t>
+          <t>B564- Dk Black Gd</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -638,37 +638,37 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>S/J</t>
+          <t>HEAVY JERSEY</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>74"Open</t>
+          <t>70"Open</t>
         </is>
       </c>
       <c r="K2" s="3" t="n">
-        <v>540</v>
+        <v>193</v>
       </c>
       <c r="L2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>543.09</v>
+        <v>193</v>
       </c>
       <c r="N2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>459</v>
+        <v>162</v>
       </c>
       <c r="P2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="Q2" s="3" t="n">
-        <v>492</v>
+        <v>174</v>
       </c>
       <c r="R2" s="3" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="T2" s="3" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="U2" s="3" t="inlineStr"/>
       <c r="V2" s="3" t="inlineStr"/>
@@ -694,17 +694,17 @@
       </c>
       <c r="Z2" s="3" t="inlineStr">
         <is>
-          <t>03-Jun-2025</t>
+          <t>25-Jun-2025</t>
         </is>
       </c>
       <c r="AA2" s="3" t="inlineStr">
         <is>
-          <t>24-Jun-2025</t>
+          <t>23-Jul-2025</t>
         </is>
       </c>
       <c r="AB2" s="3" t="inlineStr">
         <is>
-          <t>27-Jun-2025</t>
+          <t>23-Jul-2025</t>
         </is>
       </c>
       <c r="AC2" s="3" t="inlineStr">
@@ -721,12 +721,12 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>2025/9783</t>
+          <t>2025/10699</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>D16396-GD-25Q4</t>
+          <t>D27978-GD-25Q4</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -736,26 +736,26 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">D149-Iceberg Green Gd RFD </t>
+          <t xml:space="preserve">B564- Dk Black Gd </t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>D149-Iceberg Green Gd</t>
+          <t>B564- Dk Black Gd</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>100% ORGANIC COTTON</t>
+          <t>97% Organic Cotton, 3% Elastane</t>
         </is>
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>1x1 RIB</t>
+          <t>2X2 L RIB</t>
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
@@ -763,25 +763,25 @@
         </is>
       </c>
       <c r="K3" s="3" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="L3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>46.05</v>
+        <v>26</v>
       </c>
       <c r="N3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="P3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="R3" s="3" t="n">
         <v>0</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="T3" s="3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U3" s="3" t="inlineStr"/>
       <c r="V3" s="3" t="inlineStr"/>
@@ -807,17 +807,17 @@
       </c>
       <c r="Z3" s="3" t="inlineStr">
         <is>
-          <t>03-Jun-2025</t>
+          <t>25-Jun-2025</t>
         </is>
       </c>
       <c r="AA3" s="3" t="inlineStr">
         <is>
-          <t>24-Jun-2025</t>
+          <t>23-Jul-2025</t>
         </is>
       </c>
       <c r="AB3" s="3" t="inlineStr">
         <is>
-          <t>27-Jun-2025</t>
+          <t>23-Jul-2025</t>
         </is>
       </c>
       <c r="AC3" s="3" t="inlineStr"/>
@@ -830,12 +830,12 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>2025/9783</t>
+          <t>2025/9747</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>D16396-GD-25Q4</t>
+          <t>D27976-25Q4</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -845,12 +845,12 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">H159-Wren Gd RFD </t>
+          <t xml:space="preserve">B564- Dk Black Gd </t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>H159-Wren Gd</t>
+          <t>6484-Dk Black</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
@@ -860,46 +860,46 @@
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>S/J</t>
+          <t>HEAVY JERSEY</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
-          <t>74"Open</t>
+          <t>70"Open</t>
         </is>
       </c>
       <c r="K4" s="3" t="n">
-        <v>1016</v>
+        <v>173</v>
       </c>
       <c r="L4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>1015.4</v>
+        <v>173</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>884</v>
+        <v>144</v>
       </c>
       <c r="P4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>932</v>
+        <v>133</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="U4" s="3" t="inlineStr"/>
       <c r="V4" s="3" t="inlineStr"/>
@@ -916,20 +916,24 @@
       </c>
       <c r="Z4" s="3" t="inlineStr">
         <is>
-          <t>03-Jun-2025</t>
+          <t>02-Jun-2025</t>
         </is>
       </c>
       <c r="AA4" s="3" t="inlineStr">
         <is>
-          <t>24-Jun-2025</t>
+          <t>29-Jun-2025</t>
         </is>
       </c>
       <c r="AB4" s="3" t="inlineStr">
         <is>
-          <t>27-Jun-2025</t>
-        </is>
-      </c>
-      <c r="AC4" s="3" t="inlineStr"/>
+          <t>29-Jun-2025</t>
+        </is>
+      </c>
+      <c r="AC4" s="3" t="inlineStr">
+        <is>
+          <t>Jinnat Complex</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
@@ -939,12 +943,12 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>2025/9783</t>
+          <t>2025/9747</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>D16396-GD-25Q4</t>
+          <t>D27976-25Q4</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -954,26 +958,26 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">H159-Wren Gd RFD </t>
+          <t xml:space="preserve">6484-Dk Black </t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>H159-Wren Gd</t>
+          <t>6484-Dk Black</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>100% ORGANIC COTTON</t>
+          <t>97% Organic Cotton, 3% Elastane</t>
         </is>
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>1x1 RIB</t>
+          <t>2X2 L RIB</t>
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
@@ -981,25 +985,25 @@
         </is>
       </c>
       <c r="K5" s="3" t="n">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="L5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="N5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="P5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="Q5" s="3" t="n">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="R5" s="3" t="n">
         <v>0</v>
@@ -1008,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="3" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="U5" s="3" t="inlineStr"/>
       <c r="V5" s="3" t="inlineStr"/>
@@ -1025,17 +1029,17 @@
       </c>
       <c r="Z5" s="3" t="inlineStr">
         <is>
-          <t>03-Jun-2025</t>
+          <t>02-Jun-2025</t>
         </is>
       </c>
       <c r="AA5" s="3" t="inlineStr">
         <is>
-          <t>24-Jun-2025</t>
+          <t>29-Jun-2025</t>
         </is>
       </c>
       <c r="AB5" s="3" t="inlineStr">
         <is>
-          <t>27-Jun-2025</t>
+          <t>29-Jun-2025</t>
         </is>
       </c>
       <c r="AC5" s="3" t="inlineStr"/>
@@ -1048,12 +1052,12 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>2025/9783</t>
+          <t>2025/9747</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>D16396-GD-25Q4</t>
+          <t>D27976-25Q4</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -1063,12 +1067,12 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">H645-Port Red Gd RFD </t>
+          <t xml:space="preserve">110 White </t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>H645-Port Red Gd</t>
+          <t>110 White</t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
@@ -1078,37 +1082,37 @@
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>S/J</t>
+          <t>HEAVY JERSEY</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
-          <t>74"Open</t>
+          <t>70"Open</t>
         </is>
       </c>
       <c r="K6" s="3" t="n">
-        <v>633</v>
+        <v>185</v>
       </c>
       <c r="L6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>631.27</v>
+        <v>185</v>
       </c>
       <c r="N6" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>551</v>
+        <v>146</v>
       </c>
       <c r="P6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="Q6" s="3" t="n">
-        <v>585</v>
+        <v>162</v>
       </c>
       <c r="R6" s="3" t="n">
         <v>0</v>
@@ -1117,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="3" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="U6" s="3" t="inlineStr"/>
       <c r="V6" s="3" t="inlineStr"/>
@@ -1134,17 +1138,17 @@
       </c>
       <c r="Z6" s="3" t="inlineStr">
         <is>
-          <t>03-Jun-2025</t>
+          <t>02-Jun-2025</t>
         </is>
       </c>
       <c r="AA6" s="3" t="inlineStr">
         <is>
-          <t>24-Jun-2025</t>
+          <t>29-Jun-2025</t>
         </is>
       </c>
       <c r="AB6" s="3" t="inlineStr">
         <is>
-          <t>27-Jun-2025</t>
+          <t>29-Jun-2025</t>
         </is>
       </c>
       <c r="AC6" s="3" t="inlineStr"/>
@@ -1157,12 +1161,12 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>2025/9783</t>
+          <t>2025/9747</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>D16396-GD-25Q4</t>
+          <t>D27976-25Q4</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -1172,26 +1176,26 @@
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">H645-Port Red Gd RFD </t>
+          <t xml:space="preserve">110 White </t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>H645-Port Red Gd</t>
+          <t>110 White</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>100% ORGANIC COTTON</t>
+          <t>97% Organic Cotton, 3% Elastane</t>
         </is>
       </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t>1x1 RIB</t>
+          <t>2X2 L RIB</t>
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
@@ -1199,34 +1203,34 @@
         </is>
       </c>
       <c r="K7" s="3" t="n">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="L7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>50.44</v>
+        <v>20</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="P7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="R7" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="T7" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U7" s="3" t="inlineStr"/>
       <c r="V7" s="3" t="inlineStr"/>
@@ -1243,17 +1247,17 @@
       </c>
       <c r="Z7" s="3" t="inlineStr">
         <is>
-          <t>03-Jun-2025</t>
+          <t>02-Jun-2025</t>
         </is>
       </c>
       <c r="AA7" s="3" t="inlineStr">
         <is>
-          <t>24-Jun-2025</t>
+          <t>29-Jun-2025</t>
         </is>
       </c>
       <c r="AB7" s="3" t="inlineStr">
         <is>
-          <t>27-Jun-2025</t>
+          <t>29-Jun-2025</t>
         </is>
       </c>
       <c r="AC7" s="3" t="inlineStr"/>
@@ -1266,12 +1270,12 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>2025/9772</t>
+          <t>2025/9921</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>D07205-25Q4</t>
+          <t>D26867-25Q4</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -1281,12 +1285,12 @@
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">110 White </t>
+          <t xml:space="preserve">6484-Dk Black </t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>110 White</t>
+          <t>6484-Dk Black</t>
         </is>
       </c>
       <c r="G8" s="3" t="inlineStr">
@@ -1296,37 +1300,37 @@
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>1x1 RIB</t>
+          <t>INTERLOCK</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
-          <t>69"Open</t>
+          <t>78"Open</t>
         </is>
       </c>
       <c r="K8" s="3" t="n">
-        <v>591</v>
+        <v>1125</v>
       </c>
       <c r="L8" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>591.7</v>
+        <v>1129.02</v>
       </c>
       <c r="N8" s="3" t="n">
         <v>0</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>520</v>
+        <v>1024</v>
       </c>
       <c r="P8" s="3" t="n">
         <v>0</v>
       </c>
       <c r="Q8" s="3" t="n">
-        <v>532</v>
+        <v>1024</v>
       </c>
       <c r="R8" s="3" t="n">
         <v>0</v>
@@ -1335,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="U8" s="3" t="inlineStr"/>
       <c r="V8" s="3" t="inlineStr"/>
@@ -1352,17 +1356,17 @@
       </c>
       <c r="Z8" s="3" t="inlineStr">
         <is>
-          <t>03-Jun-2025</t>
+          <t>16-Jun-2025</t>
         </is>
       </c>
       <c r="AA8" s="3" t="inlineStr">
         <is>
-          <t>01-Jul-2025</t>
+          <t>04-Jul-2025</t>
         </is>
       </c>
       <c r="AB8" s="3" t="inlineStr">
         <is>
-          <t>02-Jul-2025</t>
+          <t>07-Jul-2025</t>
         </is>
       </c>
       <c r="AC8" s="3" t="inlineStr">
@@ -1379,84 +1383,84 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>2025/9772</t>
+          <t>2025/9921</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>D07205-25Q4</t>
+          <t>D26867-25Q4</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>Body/Shell Fabric</t>
+          <t>NECK + CUFF</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">110 White </t>
+          <t xml:space="preserve">6484-Dk Black </t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>110 White</t>
+          <t>6484-Dk Black</t>
         </is>
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>100% ORGANIC COTTON</t>
+          <t>97% Organic Cotton, 3% Elastane</t>
         </is>
       </c>
       <c r="H9" s="3" t="inlineStr">
         <is>
-          <t>1x1 RIB</t>
+          <t>1x1 L RIB</t>
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>205</v>
+        <v>260</v>
       </c>
       <c r="J9" s="3" t="inlineStr">
         <is>
-          <t>69"Open</t>
+          <t>ANY"TUBE</t>
         </is>
       </c>
       <c r="K9" s="3" t="n">
-        <v>591</v>
+        <v>121</v>
       </c>
       <c r="L9" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>590.4299999999999</v>
+        <v>121</v>
       </c>
       <c r="N9" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>520</v>
+        <v>105</v>
       </c>
       <c r="P9" s="3" t="n">
         <v>0</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>503</v>
+        <v>119</v>
       </c>
       <c r="R9" s="3" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3" t="n">
         <v>0</v>
       </c>
       <c r="T9" s="3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="U9" s="3" t="inlineStr"/>
       <c r="V9" s="3" t="inlineStr"/>
       <c r="W9" s="3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="X9" s="3" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Y9" s="3" t="inlineStr">
         <is>
@@ -1465,17 +1469,17 @@
       </c>
       <c r="Z9" s="3" t="inlineStr">
         <is>
-          <t>03-Jun-2025</t>
+          <t>16-Jun-2025</t>
         </is>
       </c>
       <c r="AA9" s="3" t="inlineStr">
         <is>
-          <t>01-Jul-2025</t>
+          <t>04-Jul-2025</t>
         </is>
       </c>
       <c r="AB9" s="3" t="inlineStr">
         <is>
-          <t>02-Jul-2025</t>
+          <t>07-Jul-2025</t>
         </is>
       </c>
       <c r="AC9" s="3" t="inlineStr"/>
@@ -1488,12 +1492,12 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>2025/9772</t>
+          <t>2025/9921</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>D07205-25Q4</t>
+          <t>D26867-25Q4</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -1503,12 +1507,12 @@
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">6484-Dk Black </t>
+          <t xml:space="preserve">A488-Dk Talc </t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>990-Dk Black</t>
+          <t>A488-Dk Talc</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">
@@ -1518,37 +1522,37 @@
       </c>
       <c r="H10" s="3" t="inlineStr">
         <is>
-          <t>1x1 RIB</t>
+          <t>INTERLOCK</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="J10" s="3" t="inlineStr">
         <is>
-          <t>69"Open</t>
+          <t>76"Open</t>
         </is>
       </c>
       <c r="K10" s="3" t="n">
-        <v>400</v>
+        <v>1129</v>
       </c>
       <c r="L10" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>400</v>
+        <v>1128.7</v>
       </c>
       <c r="N10" s="3" t="n">
         <v>0</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>359</v>
+        <v>982</v>
       </c>
       <c r="P10" s="3" t="n">
         <v>0</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>364</v>
+        <v>1002</v>
       </c>
       <c r="R10" s="3" t="n">
         <v>0</v>
@@ -1557,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="3" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="U10" s="3" t="inlineStr"/>
       <c r="V10" s="3" t="inlineStr"/>
@@ -1574,17 +1578,17 @@
       </c>
       <c r="Z10" s="3" t="inlineStr">
         <is>
-          <t>03-Jun-2025</t>
+          <t>16-Jun-2025</t>
         </is>
       </c>
       <c r="AA10" s="3" t="inlineStr">
         <is>
-          <t>01-Jul-2025</t>
+          <t>04-Jul-2025</t>
         </is>
       </c>
       <c r="AB10" s="3" t="inlineStr">
         <is>
-          <t>02-Jul-2025</t>
+          <t>07-Jul-2025</t>
         </is>
       </c>
       <c r="AC10" s="3" t="inlineStr"/>
@@ -1597,67 +1601,67 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>2025/9772</t>
+          <t>2025/9921</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>D07205-25Q4</t>
+          <t>D26867-25Q4</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>Body/Shell Fabric</t>
+          <t>NECK + CUFF</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">6484-Dk Black </t>
+          <t xml:space="preserve">A488-Dk Talc </t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>990-Dk Black</t>
+          <t>A488-Dk Talc</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>100% ORGANIC COTTON</t>
+          <t>97% Organic Cotton, 3% Elastane</t>
         </is>
       </c>
       <c r="H11" s="3" t="inlineStr">
         <is>
-          <t>1x1 RIB</t>
+          <t>1x1 L RIB</t>
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>205</v>
+        <v>260</v>
       </c>
       <c r="J11" s="3" t="inlineStr">
         <is>
-          <t>69"Open</t>
+          <t>ANY"TUBE</t>
         </is>
       </c>
       <c r="K11" s="3" t="n">
-        <v>400</v>
+        <v>119</v>
       </c>
       <c r="L11" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M11" s="3" t="n">
-        <v>399.6</v>
+        <v>119.52</v>
       </c>
       <c r="N11" s="3" t="n">
         <v>0</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>359</v>
+        <v>101</v>
       </c>
       <c r="P11" s="3" t="n">
         <v>0</v>
       </c>
       <c r="Q11" s="3" t="n">
-        <v>380</v>
+        <v>104</v>
       </c>
       <c r="R11" s="3" t="n">
         <v>0</v>
@@ -1666,15 +1670,15 @@
         <v>0</v>
       </c>
       <c r="T11" s="3" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="U11" s="3" t="inlineStr"/>
       <c r="V11" s="3" t="inlineStr"/>
       <c r="W11" s="3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="X11" s="3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y11" s="3" t="inlineStr">
         <is>
@@ -1683,20 +1687,1990 @@
       </c>
       <c r="Z11" s="3" t="inlineStr">
         <is>
-          <t>03-Jun-2025</t>
+          <t>16-Jun-2025</t>
         </is>
       </c>
       <c r="AA11" s="3" t="inlineStr">
         <is>
+          <t>04-Jul-2025</t>
+        </is>
+      </c>
+      <c r="AB11" s="3" t="inlineStr">
+        <is>
+          <t>07-Jul-2025</t>
+        </is>
+      </c>
+      <c r="AC11" s="3" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>G-STAR</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>2025/9921</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>D26867-25Q4</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>Body/Shell Fabric</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B230-Shadow Olive </t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>B230-Shadow Olive</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>100% ORGANIC COTTON</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
+        <is>
+          <t>INTERLOCK</t>
+        </is>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>230</v>
+      </c>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t>76"Open</t>
+        </is>
+      </c>
+      <c r="K12" s="3" t="n">
+        <v>943</v>
+      </c>
+      <c r="L12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3" t="n">
+        <v>943</v>
+      </c>
+      <c r="N12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3" t="n">
+        <v>820</v>
+      </c>
+      <c r="P12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3" t="n">
+        <v>864</v>
+      </c>
+      <c r="R12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="U12" s="3" t="inlineStr"/>
+      <c r="V12" s="3" t="inlineStr"/>
+      <c r="W12" s="3" t="n">
+        <v>323</v>
+      </c>
+      <c r="X12" s="3" t="n">
+        <v>288</v>
+      </c>
+      <c r="Y12" s="3" t="inlineStr">
+        <is>
+          <t>MTL</t>
+        </is>
+      </c>
+      <c r="Z12" s="3" t="inlineStr">
+        <is>
+          <t>16-Jun-2025</t>
+        </is>
+      </c>
+      <c r="AA12" s="3" t="inlineStr">
+        <is>
+          <t>04-Jul-2025</t>
+        </is>
+      </c>
+      <c r="AB12" s="3" t="inlineStr">
+        <is>
+          <t>07-Jul-2025</t>
+        </is>
+      </c>
+      <c r="AC12" s="3" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>G-STAR</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>2025/9921</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>D26867-25Q4</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>NECK + CUFF</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B230-Shadow Olive </t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>B230-Shadow Olive</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>97% Organic Cotton, 3% Elastane</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="inlineStr">
+        <is>
+          <t>1x1 L RIB</t>
+        </is>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>260</v>
+      </c>
+      <c r="J13" s="3" t="inlineStr">
+        <is>
+          <t>ANY"TUBE</t>
+        </is>
+      </c>
+      <c r="K13" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="L13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3" t="n">
+        <v>100.33</v>
+      </c>
+      <c r="N13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3" t="n">
+        <v>84</v>
+      </c>
+      <c r="P13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3" t="n">
+        <v>93</v>
+      </c>
+      <c r="R13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="U13" s="3" t="inlineStr"/>
+      <c r="V13" s="3" t="inlineStr"/>
+      <c r="W13" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="X13" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y13" s="3" t="inlineStr">
+        <is>
+          <t>MTL</t>
+        </is>
+      </c>
+      <c r="Z13" s="3" t="inlineStr">
+        <is>
+          <t>16-Jun-2025</t>
+        </is>
+      </c>
+      <c r="AA13" s="3" t="inlineStr">
+        <is>
+          <t>04-Jul-2025</t>
+        </is>
+      </c>
+      <c r="AB13" s="3" t="inlineStr">
+        <is>
+          <t>07-Jul-2025</t>
+        </is>
+      </c>
+      <c r="AC13" s="3" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>G-STAR</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>2025/9802</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>D26823-25Q4</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>Body/Shell Fabric</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">110 White </t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>110 White</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>100% ORGANIC COTTON</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t>INTERLOCK</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>230</v>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>76"Open</t>
+        </is>
+      </c>
+      <c r="K14" s="3" t="n">
+        <v>296</v>
+      </c>
+      <c r="L14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="n">
+        <v>298.2</v>
+      </c>
+      <c r="N14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="n">
+        <v>249</v>
+      </c>
+      <c r="P14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="n">
+        <v>251</v>
+      </c>
+      <c r="R14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U14" s="3" t="inlineStr"/>
+      <c r="V14" s="3" t="inlineStr"/>
+      <c r="W14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="inlineStr">
+        <is>
+          <t>MTL</t>
+        </is>
+      </c>
+      <c r="Z14" s="3" t="inlineStr">
+        <is>
+          <t>04-Jun-2025</t>
+        </is>
+      </c>
+      <c r="AA14" s="3" t="inlineStr">
+        <is>
           <t>01-Jul-2025</t>
         </is>
       </c>
-      <c r="AB11" s="3" t="inlineStr">
-        <is>
-          <t>02-Jul-2025</t>
-        </is>
-      </c>
-      <c r="AC11" s="3" t="inlineStr"/>
+      <c r="AB14" s="3" t="inlineStr">
+        <is>
+          <t>03-Jul-2025</t>
+        </is>
+      </c>
+      <c r="AC14" s="3" t="inlineStr">
+        <is>
+          <t>Jinnat Complex</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>G-STAR</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>2025/9802</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>D26823-25Q4</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">110 White </t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>110 White</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>97% Organic Cotton, 3% Elastane</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>1x1 L RIB</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>260</v>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>ANY"TUBE</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="L15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="N15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="P15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="R15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="U15" s="3" t="inlineStr"/>
+      <c r="V15" s="3" t="inlineStr"/>
+      <c r="W15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3" t="inlineStr">
+        <is>
+          <t>MTL</t>
+        </is>
+      </c>
+      <c r="Z15" s="3" t="inlineStr">
+        <is>
+          <t>04-Jun-2025</t>
+        </is>
+      </c>
+      <c r="AA15" s="3" t="inlineStr">
+        <is>
+          <t>01-Jul-2025</t>
+        </is>
+      </c>
+      <c r="AB15" s="3" t="inlineStr">
+        <is>
+          <t>03-Jul-2025</t>
+        </is>
+      </c>
+      <c r="AC15" s="3" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>G-STAR</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>2025/9802</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>D26823-25Q4</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>Body/Shell Fabric</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6484-Dk Black </t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>6484-Dk Black</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>100% ORGANIC COTTON</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>INTERLOCK</t>
+        </is>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>230</v>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>78"Open</t>
+        </is>
+      </c>
+      <c r="K16" s="3" t="n">
+        <v>616</v>
+      </c>
+      <c r="L16" s="3" t="n">
+        <v>120</v>
+      </c>
+      <c r="M16" s="3" t="n">
+        <v>602.03</v>
+      </c>
+      <c r="N16" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="O16" s="3" t="n">
+        <v>441</v>
+      </c>
+      <c r="P16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3" t="n">
+        <v>593</v>
+      </c>
+      <c r="R16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" s="3" t="n">
+        <v>152</v>
+      </c>
+      <c r="U16" s="3" t="inlineStr"/>
+      <c r="V16" s="3" t="inlineStr"/>
+      <c r="W16" s="3" t="n">
+        <v>430</v>
+      </c>
+      <c r="X16" s="3" t="n">
+        <v>311</v>
+      </c>
+      <c r="Y16" s="3" t="inlineStr">
+        <is>
+          <t>MTL</t>
+        </is>
+      </c>
+      <c r="Z16" s="3" t="inlineStr">
+        <is>
+          <t>04-Jun-2025</t>
+        </is>
+      </c>
+      <c r="AA16" s="3" t="inlineStr">
+        <is>
+          <t>01-Jul-2025</t>
+        </is>
+      </c>
+      <c r="AB16" s="3" t="inlineStr">
+        <is>
+          <t>03-Jul-2025</t>
+        </is>
+      </c>
+      <c r="AC16" s="3" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>G-STAR</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>2025/9802</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>D26823-25Q4</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>Neck Rib</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6484-Dk Black </t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>6484-Dk Black</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>97% Organic Cotton, 3% Elastane</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>1x1 L RIB</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>260</v>
+      </c>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>ANY"TUBE</t>
+        </is>
+      </c>
+      <c r="K17" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="L17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="N17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="P17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="R17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="U17" s="3" t="inlineStr"/>
+      <c r="V17" s="3" t="inlineStr"/>
+      <c r="W17" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="X17" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="Y17" s="3" t="inlineStr">
+        <is>
+          <t>MTL</t>
+        </is>
+      </c>
+      <c r="Z17" s="3" t="inlineStr">
+        <is>
+          <t>04-Jun-2025</t>
+        </is>
+      </c>
+      <c r="AA17" s="3" t="inlineStr">
+        <is>
+          <t>01-Jul-2025</t>
+        </is>
+      </c>
+      <c r="AB17" s="3" t="inlineStr">
+        <is>
+          <t>03-Jul-2025</t>
+        </is>
+      </c>
+      <c r="AC17" s="3" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>G-STAR</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>2025/9802</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>D26823-25Q4</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>Body/Shell Fabric</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7160-Dk Patriot Blue </t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>7160-Dk Patriot Blue</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>100% ORGANIC COTTON</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>INTERLOCK</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>230</v>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t>76"Open</t>
+        </is>
+      </c>
+      <c r="K18" s="3" t="n">
+        <v>777</v>
+      </c>
+      <c r="L18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3" t="n">
+        <v>781.47</v>
+      </c>
+      <c r="N18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3" t="n">
+        <v>684</v>
+      </c>
+      <c r="P18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3" t="n">
+        <v>691</v>
+      </c>
+      <c r="R18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="U18" s="3" t="inlineStr"/>
+      <c r="V18" s="3" t="inlineStr"/>
+      <c r="W18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3" t="inlineStr">
+        <is>
+          <t>MTL</t>
+        </is>
+      </c>
+      <c r="Z18" s="3" t="inlineStr">
+        <is>
+          <t>04-Jun-2025</t>
+        </is>
+      </c>
+      <c r="AA18" s="3" t="inlineStr">
+        <is>
+          <t>01-Jul-2025</t>
+        </is>
+      </c>
+      <c r="AB18" s="3" t="inlineStr">
+        <is>
+          <t>03-Jul-2025</t>
+        </is>
+      </c>
+      <c r="AC18" s="3" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>G-STAR</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>2025/9802</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>D26823-25Q4</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>Neck Rib</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7160-Dk Patriot Blue </t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>7160-Dk Patriot Blue</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>97% Organic Cotton, 3% Elastane</t>
+        </is>
+      </c>
+      <c r="H19" s="3" t="inlineStr">
+        <is>
+          <t>1x1 L RIB</t>
+        </is>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>260</v>
+      </c>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t>ANY"TUBE</t>
+        </is>
+      </c>
+      <c r="K19" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="L19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3" t="n">
+        <v>57.95</v>
+      </c>
+      <c r="N19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="P19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="R19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="U19" s="3" t="inlineStr"/>
+      <c r="V19" s="3" t="inlineStr"/>
+      <c r="W19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="3" t="inlineStr">
+        <is>
+          <t>MTL</t>
+        </is>
+      </c>
+      <c r="Z19" s="3" t="inlineStr">
+        <is>
+          <t>04-Jun-2025</t>
+        </is>
+      </c>
+      <c r="AA19" s="3" t="inlineStr">
+        <is>
+          <t>01-Jul-2025</t>
+        </is>
+      </c>
+      <c r="AB19" s="3" t="inlineStr">
+        <is>
+          <t>03-Jul-2025</t>
+        </is>
+      </c>
+      <c r="AC19" s="3" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>G-STAR</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>2025/9802</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>D26823-25Q4</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>Body/Shell Fabric</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">G283-Wild Dove </t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>G283-Wild Dove</t>
+        </is>
+      </c>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>100% ORGANIC COTTON</t>
+        </is>
+      </c>
+      <c r="H20" s="3" t="inlineStr">
+        <is>
+          <t>INTERLOCK</t>
+        </is>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>230</v>
+      </c>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>76"Open</t>
+        </is>
+      </c>
+      <c r="K20" s="3" t="n">
+        <v>1410</v>
+      </c>
+      <c r="L20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="n">
+        <v>1410.5</v>
+      </c>
+      <c r="N20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="n">
+        <v>1241</v>
+      </c>
+      <c r="P20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3" t="n">
+        <v>1245</v>
+      </c>
+      <c r="R20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="U20" s="3" t="inlineStr"/>
+      <c r="V20" s="3" t="inlineStr"/>
+      <c r="W20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3" t="inlineStr">
+        <is>
+          <t>MTL</t>
+        </is>
+      </c>
+      <c r="Z20" s="3" t="inlineStr">
+        <is>
+          <t>04-Jun-2025</t>
+        </is>
+      </c>
+      <c r="AA20" s="3" t="inlineStr">
+        <is>
+          <t>01-Jul-2025</t>
+        </is>
+      </c>
+      <c r="AB20" s="3" t="inlineStr">
+        <is>
+          <t>03-Jul-2025</t>
+        </is>
+      </c>
+      <c r="AC20" s="3" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>G-STAR</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>2025/9802</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>D26823-25Q4</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>Neck Rib</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">G283-Wild Dove </t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>G283-Wild Dove</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>97% Organic Cotton, 3% Elastane</t>
+        </is>
+      </c>
+      <c r="H21" s="3" t="inlineStr">
+        <is>
+          <t>1x1 L RIB</t>
+        </is>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>260</v>
+      </c>
+      <c r="J21" s="3" t="inlineStr">
+        <is>
+          <t>ANY"TUBE</t>
+        </is>
+      </c>
+      <c r="K21" s="3" t="n">
+        <v>91</v>
+      </c>
+      <c r="L21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="N21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="P21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="R21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U21" s="3" t="inlineStr"/>
+      <c r="V21" s="3" t="inlineStr"/>
+      <c r="W21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3" t="inlineStr">
+        <is>
+          <t>MTL</t>
+        </is>
+      </c>
+      <c r="Z21" s="3" t="inlineStr">
+        <is>
+          <t>04-Jun-2025</t>
+        </is>
+      </c>
+      <c r="AA21" s="3" t="inlineStr">
+        <is>
+          <t>01-Jul-2025</t>
+        </is>
+      </c>
+      <c r="AB21" s="3" t="inlineStr">
+        <is>
+          <t>03-Jul-2025</t>
+        </is>
+      </c>
+      <c r="AC21" s="3" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>G-STAR</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>2025/9802</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>D26823-25Q4</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>Body/Shell Fabric</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">995-Asfalt </t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>995-Asfalt</t>
+        </is>
+      </c>
+      <c r="G22" s="3" t="inlineStr">
+        <is>
+          <t>100% COTTON ORGANIC</t>
+        </is>
+      </c>
+      <c r="H22" s="3" t="inlineStr">
+        <is>
+          <t>INTERLOCK</t>
+        </is>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>230</v>
+      </c>
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t>76"Open</t>
+        </is>
+      </c>
+      <c r="K22" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="L22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="N22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="P22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="R22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3" t="inlineStr"/>
+      <c r="V22" s="3" t="inlineStr"/>
+      <c r="W22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3" t="inlineStr">
+        <is>
+          <t>MTL</t>
+        </is>
+      </c>
+      <c r="Z22" s="3" t="inlineStr">
+        <is>
+          <t>04-Jun-2025</t>
+        </is>
+      </c>
+      <c r="AA22" s="3" t="inlineStr">
+        <is>
+          <t>01-Jul-2025</t>
+        </is>
+      </c>
+      <c r="AB22" s="3" t="inlineStr">
+        <is>
+          <t>03-Jul-2025</t>
+        </is>
+      </c>
+      <c r="AC22" s="3" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>G-STAR</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>2025/9802</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>D26823-25Q4</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>Neck Rib</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">995-Asfalt </t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>995-Asfalt</t>
+        </is>
+      </c>
+      <c r="G23" s="3" t="inlineStr">
+        <is>
+          <t>97% Organic Cotton, 3% Elastane</t>
+        </is>
+      </c>
+      <c r="H23" s="3" t="inlineStr">
+        <is>
+          <t>1x1 L RIB</t>
+        </is>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>260</v>
+      </c>
+      <c r="J23" s="3" t="inlineStr">
+        <is>
+          <t>ANY"TUBE</t>
+        </is>
+      </c>
+      <c r="K23" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="L23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="N23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="P23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="R23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3" t="inlineStr"/>
+      <c r="V23" s="3" t="inlineStr"/>
+      <c r="W23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3" t="inlineStr">
+        <is>
+          <t>MTL</t>
+        </is>
+      </c>
+      <c r="Z23" s="3" t="inlineStr">
+        <is>
+          <t>04-Jun-2025</t>
+        </is>
+      </c>
+      <c r="AA23" s="3" t="inlineStr">
+        <is>
+          <t>01-Jul-2025</t>
+        </is>
+      </c>
+      <c r="AB23" s="3" t="inlineStr">
+        <is>
+          <t>03-Jul-2025</t>
+        </is>
+      </c>
+      <c r="AC23" s="3" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>G-STAR</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>2025/9740</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>D26855-25Q4</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>Body/Shell Fabric</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B564- Dk Black Gd </t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>6484-Dk Black</t>
+        </is>
+      </c>
+      <c r="G24" s="3" t="inlineStr">
+        <is>
+          <t>100% ORGANIC COTTON</t>
+        </is>
+      </c>
+      <c r="H24" s="3" t="inlineStr">
+        <is>
+          <t>HEAVY JERSEY</t>
+        </is>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>215</v>
+      </c>
+      <c r="J24" s="3" t="inlineStr">
+        <is>
+          <t>70"Open</t>
+        </is>
+      </c>
+      <c r="K24" s="3" t="n">
+        <v>1411</v>
+      </c>
+      <c r="L24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="n">
+        <v>1407.25</v>
+      </c>
+      <c r="N24" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="O24" s="3" t="n">
+        <v>1284</v>
+      </c>
+      <c r="P24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3" t="n">
+        <v>921</v>
+      </c>
+      <c r="R24" s="3" t="n">
+        <v>363</v>
+      </c>
+      <c r="S24" s="3" t="n">
+        <v>381</v>
+      </c>
+      <c r="T24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3" t="inlineStr"/>
+      <c r="V24" s="3" t="inlineStr"/>
+      <c r="W24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3" t="inlineStr">
+        <is>
+          <t>MTL</t>
+        </is>
+      </c>
+      <c r="Z24" s="3" t="inlineStr">
+        <is>
+          <t>02-Jun-2025</t>
+        </is>
+      </c>
+      <c r="AA24" s="3" t="inlineStr">
+        <is>
+          <t>24-Jun-2025</t>
+        </is>
+      </c>
+      <c r="AB24" s="3" t="inlineStr">
+        <is>
+          <t>29-Jun-2025</t>
+        </is>
+      </c>
+      <c r="AC24" s="3" t="inlineStr">
+        <is>
+          <t>Jinnat Complex</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>G-STAR</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>2025/9740</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>D26855-25Q4</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>Neck Rib</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6484-Dk Black </t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>6484-Dk Black</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>97% Organic Cotton, 3% Elastane</t>
+        </is>
+      </c>
+      <c r="H25" s="3" t="inlineStr">
+        <is>
+          <t>1x1 L RIB</t>
+        </is>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>320</v>
+      </c>
+      <c r="J25" s="3" t="inlineStr">
+        <is>
+          <t>ANY"TUBE</t>
+        </is>
+      </c>
+      <c r="K25" s="3" t="n">
+        <v>105</v>
+      </c>
+      <c r="L25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3" t="n">
+        <v>105.7</v>
+      </c>
+      <c r="N25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="P25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="R25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U25" s="3" t="inlineStr"/>
+      <c r="V25" s="3" t="inlineStr"/>
+      <c r="W25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3" t="inlineStr">
+        <is>
+          <t>MTL</t>
+        </is>
+      </c>
+      <c r="Z25" s="3" t="inlineStr">
+        <is>
+          <t>02-Jun-2025</t>
+        </is>
+      </c>
+      <c r="AA25" s="3" t="inlineStr">
+        <is>
+          <t>24-Jun-2025</t>
+        </is>
+      </c>
+      <c r="AB25" s="3" t="inlineStr">
+        <is>
+          <t>29-Jun-2025</t>
+        </is>
+      </c>
+      <c r="AC25" s="3" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>G-STAR</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>2025/9740</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>D26855-25Q4</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>Body/Shell Fabric</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">110 White </t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>110 White</t>
+        </is>
+      </c>
+      <c r="G26" s="3" t="inlineStr">
+        <is>
+          <t>100% ORGANIC COTTON</t>
+        </is>
+      </c>
+      <c r="H26" s="3" t="inlineStr">
+        <is>
+          <t>HEAVY JERSEY</t>
+        </is>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>215</v>
+      </c>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>70"Open</t>
+        </is>
+      </c>
+      <c r="K26" s="3" t="n">
+        <v>1507</v>
+      </c>
+      <c r="L26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3" t="n">
+        <v>1507</v>
+      </c>
+      <c r="N26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3" t="n">
+        <v>1311</v>
+      </c>
+      <c r="P26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3" t="n">
+        <v>1370</v>
+      </c>
+      <c r="R26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3" t="n">
+        <v>59</v>
+      </c>
+      <c r="U26" s="3" t="inlineStr"/>
+      <c r="V26" s="3" t="inlineStr"/>
+      <c r="W26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3" t="inlineStr">
+        <is>
+          <t>MTL</t>
+        </is>
+      </c>
+      <c r="Z26" s="3" t="inlineStr">
+        <is>
+          <t>02-Jun-2025</t>
+        </is>
+      </c>
+      <c r="AA26" s="3" t="inlineStr">
+        <is>
+          <t>24-Jun-2025</t>
+        </is>
+      </c>
+      <c r="AB26" s="3" t="inlineStr">
+        <is>
+          <t>29-Jun-2025</t>
+        </is>
+      </c>
+      <c r="AC26" s="3" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>G-STAR</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>2025/9740</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>D26855-25Q4</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>Neck Rib</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">110 White </t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>110 White</t>
+        </is>
+      </c>
+      <c r="G27" s="3" t="inlineStr">
+        <is>
+          <t>97% Organic Cotton, 3% Elastane</t>
+        </is>
+      </c>
+      <c r="H27" s="3" t="inlineStr">
+        <is>
+          <t>1x1 L RIB</t>
+        </is>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>320</v>
+      </c>
+      <c r="J27" s="3" t="inlineStr">
+        <is>
+          <t>ANY"TUBE</t>
+        </is>
+      </c>
+      <c r="K27" s="3" t="n">
+        <v>110</v>
+      </c>
+      <c r="L27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3" t="n">
+        <v>107.7</v>
+      </c>
+      <c r="N27" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O27" s="3" t="n">
+        <v>91</v>
+      </c>
+      <c r="P27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3" t="n">
+        <v>102</v>
+      </c>
+      <c r="R27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="U27" s="3" t="inlineStr"/>
+      <c r="V27" s="3" t="inlineStr"/>
+      <c r="W27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3" t="inlineStr">
+        <is>
+          <t>MTL</t>
+        </is>
+      </c>
+      <c r="Z27" s="3" t="inlineStr">
+        <is>
+          <t>02-Jun-2025</t>
+        </is>
+      </c>
+      <c r="AA27" s="3" t="inlineStr">
+        <is>
+          <t>24-Jun-2025</t>
+        </is>
+      </c>
+      <c r="AB27" s="3" t="inlineStr">
+        <is>
+          <t>29-Jun-2025</t>
+        </is>
+      </c>
+      <c r="AC27" s="3" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>G-STAR</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>2025/9740</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>D26855-25Q4</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>Body/Shell Fabric</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">273-turf </t>
+        </is>
+      </c>
+      <c r="F28" s="3" t="inlineStr">
+        <is>
+          <t>273-Turf</t>
+        </is>
+      </c>
+      <c r="G28" s="3" t="inlineStr">
+        <is>
+          <t>100% ORGANIC COTTON</t>
+        </is>
+      </c>
+      <c r="H28" s="3" t="inlineStr">
+        <is>
+          <t>HEAVY JERSEY</t>
+        </is>
+      </c>
+      <c r="I28" s="3" t="n">
+        <v>215</v>
+      </c>
+      <c r="J28" s="3" t="inlineStr">
+        <is>
+          <t>70"Open</t>
+        </is>
+      </c>
+      <c r="K28" s="3" t="n">
+        <v>1121</v>
+      </c>
+      <c r="L28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3" t="n">
+        <v>1118.59</v>
+      </c>
+      <c r="N28" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O28" s="3" t="n">
+        <v>975</v>
+      </c>
+      <c r="P28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3" t="n">
+        <v>854</v>
+      </c>
+      <c r="R28" s="3" t="n">
+        <v>121</v>
+      </c>
+      <c r="S28" s="3" t="n">
+        <v>126</v>
+      </c>
+      <c r="T28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3" t="inlineStr"/>
+      <c r="V28" s="3" t="inlineStr"/>
+      <c r="W28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3" t="inlineStr">
+        <is>
+          <t>MTL</t>
+        </is>
+      </c>
+      <c r="Z28" s="3" t="inlineStr">
+        <is>
+          <t>02-Jun-2025</t>
+        </is>
+      </c>
+      <c r="AA28" s="3" t="inlineStr">
+        <is>
+          <t>24-Jun-2025</t>
+        </is>
+      </c>
+      <c r="AB28" s="3" t="inlineStr">
+        <is>
+          <t>29-Jun-2025</t>
+        </is>
+      </c>
+      <c r="AC28" s="3" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>G-STAR</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>2025/9740</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>D26855-25Q4</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>Neck Rib</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">273-turf </t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>273-Turf</t>
+        </is>
+      </c>
+      <c r="G29" s="3" t="inlineStr">
+        <is>
+          <t>97% Organic Cotton, 3% Elastane</t>
+        </is>
+      </c>
+      <c r="H29" s="3" t="inlineStr">
+        <is>
+          <t>1x1 L RIB</t>
+        </is>
+      </c>
+      <c r="I29" s="3" t="n">
+        <v>320</v>
+      </c>
+      <c r="J29" s="3" t="inlineStr">
+        <is>
+          <t>ANY"TUBE</t>
+        </is>
+      </c>
+      <c r="K29" s="3" t="n">
+        <v>83</v>
+      </c>
+      <c r="L29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="n">
+        <v>83</v>
+      </c>
+      <c r="N29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="n">
+        <v>68</v>
+      </c>
+      <c r="P29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3" t="n">
+        <v>77</v>
+      </c>
+      <c r="R29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="U29" s="3" t="inlineStr"/>
+      <c r="V29" s="3" t="inlineStr"/>
+      <c r="W29" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="X29" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y29" s="3" t="inlineStr">
+        <is>
+          <t>MTL</t>
+        </is>
+      </c>
+      <c r="Z29" s="3" t="inlineStr">
+        <is>
+          <t>02-Jun-2025</t>
+        </is>
+      </c>
+      <c r="AA29" s="3" t="inlineStr">
+        <is>
+          <t>24-Jun-2025</t>
+        </is>
+      </c>
+      <c r="AB29" s="3" t="inlineStr">
+        <is>
+          <t>29-Jun-2025</t>
+        </is>
+      </c>
+      <c r="AC29" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/color_wise_output.xlsx
+++ b/color_wise_output.xlsx
@@ -2,43 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1. Work\test\Fabric_Followup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F064126-DC3E-4634-9E87-72F82CC4DE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D6B86F-FBAE-4D3E-9AC1-02BC4C876667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$AC$29</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
-  </pivotCaches>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="159">
   <si>
     <t>Buyer</t>
   </si>
@@ -127,181 +109,394 @@
     <t>Delivery Unit</t>
   </si>
   <si>
-    <t>G-STAR</t>
-  </si>
-  <si>
-    <t>2025/10699</t>
-  </si>
-  <si>
-    <t>D27978-GD-25Q4</t>
+    <t>CAMEL ACTIVE</t>
+  </si>
+  <si>
+    <t>2025/11999</t>
+  </si>
+  <si>
+    <t>7T61</t>
   </si>
   <si>
     <t>Body/Shell Fabric</t>
   </si>
   <si>
-    <t xml:space="preserve">B564- Dk Black Gd </t>
-  </si>
-  <si>
-    <t>B564- Dk Black Gd</t>
-  </si>
-  <si>
-    <t>100% ORGANIC COTTON</t>
-  </si>
-  <si>
-    <t>HEAVY JERSEY</t>
+    <t xml:space="preserve">64-Sun Yellow </t>
+  </si>
+  <si>
+    <t>64-Sun Yellow</t>
+  </si>
+  <si>
+    <t>100% COMBED COMPACT COTTON BCI</t>
+  </si>
+  <si>
+    <t>DESIGN S/J Y/D</t>
+  </si>
+  <si>
+    <t>61"Open</t>
+  </si>
+  <si>
+    <t>HTL-2</t>
+  </si>
+  <si>
+    <t>14-Jul-2025</t>
+  </si>
+  <si>
+    <t>10-Aug-2025</t>
+  </si>
+  <si>
+    <t>16-Aug-2025</t>
+  </si>
+  <si>
+    <t>Jinnat Complex</t>
+  </si>
+  <si>
+    <t>MOON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-Light Beige </t>
+  </si>
+  <si>
+    <t>S/J YD</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Neck Rib</t>
+  </si>
+  <si>
+    <t>97% Combed Compact Cotton BCI, 3% Elastane</t>
+  </si>
+  <si>
+    <t>1X1 L RIB YD</t>
+  </si>
+  <si>
+    <t>Tube</t>
+  </si>
+  <si>
+    <t>2025/11734</t>
+  </si>
+  <si>
+    <t>7W25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35-Deep Olive </t>
+  </si>
+  <si>
+    <t>35-Deep Olive</t>
+  </si>
+  <si>
+    <t>80% Combed Compact Cotton BCI, 14% Polyester, 6% Elastane</t>
+  </si>
+  <si>
+    <t>SCUBA</t>
+  </si>
+  <si>
+    <t>66"Open</t>
+  </si>
+  <si>
+    <t>MTL</t>
+  </si>
+  <si>
+    <t>10-Jul-2025</t>
+  </si>
+  <si>
+    <t>02-Sep-2025</t>
+  </si>
+  <si>
+    <t>03-Sep-2025</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>S/J</t>
   </si>
   <si>
     <t>70"Open</t>
   </si>
   <si>
-    <t>MTL</t>
-  </si>
-  <si>
-    <t>25-Jun-2025</t>
+    <t>2025/11988</t>
+  </si>
+  <si>
+    <t>7W27</t>
+  </si>
+  <si>
+    <t>66"OPEN</t>
+  </si>
+  <si>
+    <t>29-Aug-2025</t>
+  </si>
+  <si>
+    <t>06-Sep-2025</t>
+  </si>
+  <si>
+    <t>RIB</t>
+  </si>
+  <si>
+    <t>70"OPEN</t>
+  </si>
+  <si>
+    <t>2X2 L RIB</t>
+  </si>
+  <si>
+    <t>52"OPEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48-Dark Navy </t>
+  </si>
+  <si>
+    <t>48-Dark Navy</t>
+  </si>
+  <si>
+    <t>2025/12649</t>
+  </si>
+  <si>
+    <t>7P61</t>
+  </si>
+  <si>
+    <t>61"OPEN</t>
   </si>
   <si>
     <t>23-Jul-2025</t>
   </si>
   <si>
-    <t>Jinnat Complex</t>
-  </si>
-  <si>
-    <t>Neck Rib</t>
-  </si>
-  <si>
-    <t>97% Organic Cotton, 3% Elastane</t>
-  </si>
-  <si>
-    <t>2X2 L RIB</t>
-  </si>
-  <si>
-    <t>ANY"TUBE</t>
-  </si>
-  <si>
-    <t>2025/9747</t>
-  </si>
-  <si>
-    <t>D27976-25Q4</t>
-  </si>
-  <si>
-    <t>6484-Dk Black</t>
-  </si>
-  <si>
-    <t>02-Jun-2025</t>
-  </si>
-  <si>
-    <t>29-Jun-2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6484-Dk Black </t>
-  </si>
-  <si>
-    <t xml:space="preserve">110 White </t>
-  </si>
-  <si>
-    <t>110 White</t>
-  </si>
-  <si>
-    <t>2025/9921</t>
-  </si>
-  <si>
-    <t>D26867-25Q4</t>
-  </si>
-  <si>
-    <t>INTERLOCK</t>
-  </si>
-  <si>
-    <t>78"Open</t>
-  </si>
-  <si>
-    <t>16-Jun-2025</t>
-  </si>
-  <si>
-    <t>04-Jul-2025</t>
+    <t>2025/12331</t>
+  </si>
+  <si>
+    <t>7W21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45-Stormy Blue </t>
+  </si>
+  <si>
+    <t>45-Stormy Blue</t>
+  </si>
+  <si>
+    <t>70% Combed Compact Cotton BCI, 30% Polyester</t>
+  </si>
+  <si>
+    <t>QUILT</t>
+  </si>
+  <si>
+    <t>58"Open</t>
+  </si>
+  <si>
+    <t>17-Jul-2025</t>
+  </si>
+  <si>
+    <t>28-Aug-2025</t>
+  </si>
+  <si>
+    <t>31-Aug-2025</t>
+  </si>
+  <si>
+    <t>FRENCH TERRY</t>
+  </si>
+  <si>
+    <t>75"Open</t>
+  </si>
+  <si>
+    <t>52"Open</t>
+  </si>
+  <si>
+    <t>POCKETING</t>
+  </si>
+  <si>
+    <t>74"Open</t>
+  </si>
+  <si>
+    <t>2025/11460</t>
+  </si>
+  <si>
+    <t>7T51</t>
+  </si>
+  <si>
+    <t>95% COMBED COMPACT COTTON BCI, 5% ELASTANE</t>
+  </si>
+  <si>
+    <t>L S/J</t>
+  </si>
+  <si>
+    <t>62"Open</t>
   </si>
   <si>
     <t>07-Jul-2025</t>
   </si>
   <si>
-    <t>NECK + CUFF</t>
+    <t>05-Sep-2025</t>
+  </si>
+  <si>
+    <t>L PIQUE</t>
   </si>
   <si>
     <t>1x1 L RIB</t>
   </si>
   <si>
-    <t xml:space="preserve">A488-Dk Talc </t>
-  </si>
-  <si>
-    <t>A488-Dk Talc</t>
-  </si>
-  <si>
-    <t>76"Open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B230-Shadow Olive </t>
-  </si>
-  <si>
-    <t>B230-Shadow Olive</t>
-  </si>
-  <si>
-    <t>2025/9802</t>
-  </si>
-  <si>
-    <t>D26823-25Q4</t>
-  </si>
-  <si>
-    <t>04-Jun-2025</t>
-  </si>
-  <si>
-    <t>01-Jul-2025</t>
-  </si>
-  <si>
-    <t>03-Jul-2025</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7160-Dk Patriot Blue </t>
-  </si>
-  <si>
-    <t>7160-Dk Patriot Blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G283-Wild Dove </t>
-  </si>
-  <si>
-    <t>G283-Wild Dove</t>
-  </si>
-  <si>
-    <t xml:space="preserve">995-Asfalt </t>
-  </si>
-  <si>
-    <t>995-Asfalt</t>
-  </si>
-  <si>
-    <t>100% COTTON ORGANIC</t>
-  </si>
-  <si>
-    <t>2025/9740</t>
-  </si>
-  <si>
-    <t>D26855-25Q4</t>
-  </si>
-  <si>
-    <t>24-Jun-2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">273-turf </t>
-  </si>
-  <si>
-    <t>273-Turf</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
+    <t>35"Tube</t>
+  </si>
+  <si>
+    <t>2025/12354</t>
+  </si>
+  <si>
+    <t>7P01-R01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-WHITE </t>
+  </si>
+  <si>
+    <t>01-White</t>
+  </si>
+  <si>
+    <t>18-Jul-2025</t>
+  </si>
+  <si>
+    <t>23-Aug-2025</t>
+  </si>
+  <si>
+    <t>08-Sep-2025</t>
+  </si>
+  <si>
+    <t>17-Light Beige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28-Earth Brown </t>
+  </si>
+  <si>
+    <t>28-Earth Brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32-Ocean Green </t>
+  </si>
+  <si>
+    <t>32-Ocean Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42-Airy Blue </t>
+  </si>
+  <si>
+    <t>42-Airy Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43-Aqua Blue </t>
+  </si>
+  <si>
+    <t>43-Aqua Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44-Indigo Blue </t>
+  </si>
+  <si>
+    <t>44-Indigo Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81-Lavender Gray </t>
+  </si>
+  <si>
+    <t>81-Lavender Gray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90-Lagoon Green </t>
+  </si>
+  <si>
+    <t>90-Lagoon Green</t>
+  </si>
+  <si>
+    <t>2025/11648</t>
+  </si>
+  <si>
+    <t>7P01</t>
+  </si>
+  <si>
+    <t>74"OPEN</t>
+  </si>
+  <si>
+    <t>09-Jul-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66-Burned Orange </t>
+  </si>
+  <si>
+    <t>66-Burned Orange</t>
+  </si>
+  <si>
+    <t>2025/12614</t>
+  </si>
+  <si>
+    <t>7W36</t>
+  </si>
+  <si>
+    <t>DESIGN PIQUE</t>
+  </si>
+  <si>
+    <t>26-Aug-2025</t>
+  </si>
+  <si>
+    <t>CUFF RIB</t>
+  </si>
+  <si>
+    <t>2025/12289</t>
+  </si>
+  <si>
+    <t>7W05</t>
+  </si>
+  <si>
+    <t>75"OPEN</t>
+  </si>
+  <si>
+    <t>24-Aug-2025</t>
+  </si>
+  <si>
+    <t>2025/12642</t>
+  </si>
+  <si>
+    <t>7T28</t>
+  </si>
+  <si>
+    <t>96% Combed Compact Cotton BCI, 4% Elastane</t>
+  </si>
+  <si>
+    <t>78"OPEN</t>
+  </si>
+  <si>
+    <t>2025/12722</t>
+  </si>
+  <si>
+    <t>7P28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35-Deep Olive-Rfd </t>
+  </si>
+  <si>
+    <t>PIQUE</t>
+  </si>
+  <si>
+    <t>80"OPEN</t>
+  </si>
+  <si>
+    <t>25-Aug-2025</t>
+  </si>
+  <si>
+    <t>30-Aug-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45-Stormy Blue-Rfd </t>
+  </si>
+  <si>
+    <t>2025/11918</t>
+  </si>
+  <si>
+    <t>7W03</t>
+  </si>
+  <si>
+    <t>13-Jul-2025</t>
+  </si>
+  <si>
+    <t>01-Sep-2025</t>
+  </si>
+  <si>
+    <t>NECK TAPE</t>
   </si>
 </sst>
 </file>
@@ -357,17 +552,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -384,1114 +575,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Mahafuz" refreshedDate="45896.403784953705" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="28" xr:uid="{BC35F836-0C73-4B62-9952-EA478B845D8F}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:AC29" sheet="Sheet1"/>
-  </cacheSource>
-  <cacheFields count="29">
-    <cacheField name="Buyer" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Order" numFmtId="0">
-      <sharedItems count="5">
-        <s v="2025/10699"/>
-        <s v="2025/9747"/>
-        <s v="2025/9921"/>
-        <s v="2025/9802"/>
-        <s v="2025/9740"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Style" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="UoF" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="F. Color" numFmtId="0">
-      <sharedItems count="9">
-        <s v="B564- Dk Black Gd "/>
-        <s v="6484-Dk Black "/>
-        <s v="110 White "/>
-        <s v="A488-Dk Talc "/>
-        <s v="B230-Shadow Olive "/>
-        <s v="7160-Dk Patriot Blue "/>
-        <s v="G283-Wild Dove "/>
-        <s v="995-Asfalt "/>
-        <s v="273-turf "/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="G. Color" numFmtId="0">
-      <sharedItems count="9">
-        <s v="B564- Dk Black Gd"/>
-        <s v="6484-Dk Black"/>
-        <s v="110 White"/>
-        <s v="A488-Dk Talc"/>
-        <s v="B230-Shadow Olive"/>
-        <s v="7160-Dk Patriot Blue"/>
-        <s v="G283-Wild Dove"/>
-        <s v="995-Asfalt"/>
-        <s v="273-Turf"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Y. Type" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="F. Type" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="GSM" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="215" maxValue="320"/>
-    </cacheField>
-    <cacheField name="Dia" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="G/F Order With S.Note Qty" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="8" maxValue="1507"/>
-    </cacheField>
-    <cacheField name="G/F S.Note Qty" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="120"/>
-    </cacheField>
-    <cacheField name="Net Grey Receive Qty" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="8" maxValue="1507"/>
-    </cacheField>
-    <cacheField name="G/F Rcv Balance Qty" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="14"/>
-    </cacheField>
-    <cacheField name="F/F Order with S.Note Qty" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="1311"/>
-    </cacheField>
-    <cacheField name="F/F S.Note Qty" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-    <cacheField name="F/F Delv Qty" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.4000000000000004" maxValue="1370"/>
-    </cacheField>
-    <cacheField name="F/F Delv. Balance Qty" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="363"/>
-    </cacheField>
-    <cacheField name="Replacement Delivery" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="381"/>
-    </cacheField>
-    <cacheField name="F/F Excess Delv.Qty" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="152"/>
-    </cacheField>
-    <cacheField name="Transfer To" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Transfer From" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Return Receive" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="430"/>
-    </cacheField>
-    <cacheField name="Return Delivery" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="311"/>
-    </cacheField>
-    <cacheField name="Dyeing Unit" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Order Sheet Receive Date" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Cut Plan Start Date" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Cut Plan End Date" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Delivery Unit" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="28">
-  <r>
-    <s v="G-STAR"/>
-    <x v="0"/>
-    <s v="D27978-GD-25Q4"/>
-    <s v="Body/Shell Fabric"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="100% ORGANIC COTTON"/>
-    <s v="HEAVY JERSEY"/>
-    <n v="215"/>
-    <s v="70&quot;Open"/>
-    <n v="193"/>
-    <n v="0"/>
-    <n v="193"/>
-    <n v="0"/>
-    <n v="162"/>
-    <n v="0"/>
-    <n v="174"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="12"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <s v="MTL"/>
-    <s v="25-Jun-2025"/>
-    <s v="23-Jul-2025"/>
-    <s v="23-Jul-2025"/>
-    <s v="Jinnat Complex"/>
-  </r>
-  <r>
-    <s v="G-STAR"/>
-    <x v="0"/>
-    <s v="D27978-GD-25Q4"/>
-    <s v="Neck Rib"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="97% Organic Cotton, 3% Elastane"/>
-    <s v="2X2 L RIB"/>
-    <n v="320"/>
-    <s v="ANY&quot;TUBE"/>
-    <n v="26"/>
-    <n v="0"/>
-    <n v="26"/>
-    <n v="0"/>
-    <n v="16"/>
-    <n v="0"/>
-    <n v="21"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <s v="MTL"/>
-    <s v="25-Jun-2025"/>
-    <s v="23-Jul-2025"/>
-    <s v="23-Jul-2025"/>
-    <m/>
-  </r>
-  <r>
-    <s v="G-STAR"/>
-    <x v="1"/>
-    <s v="D27976-25Q4"/>
-    <s v="Body/Shell Fabric"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="100% ORGANIC COTTON"/>
-    <s v="HEAVY JERSEY"/>
-    <n v="215"/>
-    <s v="70&quot;Open"/>
-    <n v="173"/>
-    <n v="0"/>
-    <n v="173"/>
-    <n v="0"/>
-    <n v="144"/>
-    <n v="0"/>
-    <n v="133"/>
-    <n v="11"/>
-    <n v="28"/>
-    <n v="0"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <s v="MTL"/>
-    <s v="02-Jun-2025"/>
-    <s v="29-Jun-2025"/>
-    <s v="29-Jun-2025"/>
-    <s v="Jinnat Complex"/>
-  </r>
-  <r>
-    <s v="G-STAR"/>
-    <x v="1"/>
-    <s v="D27976-25Q4"/>
-    <s v="Neck Rib"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="97% Organic Cotton, 3% Elastane"/>
-    <s v="2X2 L RIB"/>
-    <n v="320"/>
-    <s v="ANY&quot;TUBE"/>
-    <n v="20"/>
-    <n v="0"/>
-    <n v="20"/>
-    <n v="0"/>
-    <n v="13"/>
-    <n v="0"/>
-    <n v="19"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="6"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <s v="MTL"/>
-    <s v="02-Jun-2025"/>
-    <s v="29-Jun-2025"/>
-    <s v="29-Jun-2025"/>
-    <m/>
-  </r>
-  <r>
-    <s v="G-STAR"/>
-    <x v="1"/>
-    <s v="D27976-25Q4"/>
-    <s v="Body/Shell Fabric"/>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="100% ORGANIC COTTON"/>
-    <s v="HEAVY JERSEY"/>
-    <n v="215"/>
-    <s v="70&quot;Open"/>
-    <n v="185"/>
-    <n v="0"/>
-    <n v="185"/>
-    <n v="0"/>
-    <n v="146"/>
-    <n v="0"/>
-    <n v="162"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="16"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <s v="MTL"/>
-    <s v="02-Jun-2025"/>
-    <s v="29-Jun-2025"/>
-    <s v="29-Jun-2025"/>
-    <m/>
-  </r>
-  <r>
-    <s v="G-STAR"/>
-    <x v="1"/>
-    <s v="D27976-25Q4"/>
-    <s v="Neck Rib"/>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="97% Organic Cotton, 3% Elastane"/>
-    <s v="2X2 L RIB"/>
-    <n v="320"/>
-    <s v="ANY&quot;TUBE"/>
-    <n v="20"/>
-    <n v="0"/>
-    <n v="20"/>
-    <n v="0"/>
-    <n v="13"/>
-    <n v="0"/>
-    <n v="18"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <s v="MTL"/>
-    <s v="02-Jun-2025"/>
-    <s v="29-Jun-2025"/>
-    <s v="29-Jun-2025"/>
-    <m/>
-  </r>
-  <r>
-    <s v="G-STAR"/>
-    <x v="2"/>
-    <s v="D26867-25Q4"/>
-    <s v="Body/Shell Fabric"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="100% ORGANIC COTTON"/>
-    <s v="INTERLOCK"/>
-    <n v="230"/>
-    <s v="78&quot;Open"/>
-    <n v="1125"/>
-    <n v="0"/>
-    <n v="1129.02"/>
-    <n v="0"/>
-    <n v="1024"/>
-    <n v="0"/>
-    <n v="1024"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <s v="MTL"/>
-    <s v="16-Jun-2025"/>
-    <s v="04-Jul-2025"/>
-    <s v="07-Jul-2025"/>
-    <s v="Jinnat Complex"/>
-  </r>
-  <r>
-    <s v="G-STAR"/>
-    <x v="2"/>
-    <s v="D26867-25Q4"/>
-    <s v="NECK + CUFF"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="97% Organic Cotton, 3% Elastane"/>
-    <s v="1x1 L RIB"/>
-    <n v="260"/>
-    <s v="ANY&quot;TUBE"/>
-    <n v="121"/>
-    <n v="0"/>
-    <n v="121"/>
-    <n v="0"/>
-    <n v="105"/>
-    <n v="0"/>
-    <n v="119"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="14"/>
-    <m/>
-    <m/>
-    <n v="33"/>
-    <n v="31"/>
-    <s v="MTL"/>
-    <s v="16-Jun-2025"/>
-    <s v="04-Jul-2025"/>
-    <s v="07-Jul-2025"/>
-    <m/>
-  </r>
-  <r>
-    <s v="G-STAR"/>
-    <x v="2"/>
-    <s v="D26867-25Q4"/>
-    <s v="Body/Shell Fabric"/>
-    <x v="3"/>
-    <x v="3"/>
-    <s v="100% ORGANIC COTTON"/>
-    <s v="INTERLOCK"/>
-    <n v="230"/>
-    <s v="76&quot;Open"/>
-    <n v="1129"/>
-    <n v="0"/>
-    <n v="1128.7"/>
-    <n v="0"/>
-    <n v="982"/>
-    <n v="0"/>
-    <n v="1002"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="20"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <s v="MTL"/>
-    <s v="16-Jun-2025"/>
-    <s v="04-Jul-2025"/>
-    <s v="07-Jul-2025"/>
-    <m/>
-  </r>
-  <r>
-    <s v="G-STAR"/>
-    <x v="2"/>
-    <s v="D26867-25Q4"/>
-    <s v="NECK + CUFF"/>
-    <x v="3"/>
-    <x v="3"/>
-    <s v="97% Organic Cotton, 3% Elastane"/>
-    <s v="1x1 L RIB"/>
-    <n v="260"/>
-    <s v="ANY&quot;TUBE"/>
-    <n v="119"/>
-    <n v="0"/>
-    <n v="119.52"/>
-    <n v="0"/>
-    <n v="101"/>
-    <n v="0"/>
-    <n v="104"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3"/>
-    <m/>
-    <m/>
-    <n v="12"/>
-    <n v="11"/>
-    <s v="MTL"/>
-    <s v="16-Jun-2025"/>
-    <s v="04-Jul-2025"/>
-    <s v="07-Jul-2025"/>
-    <m/>
-  </r>
-  <r>
-    <s v="G-STAR"/>
-    <x v="2"/>
-    <s v="D26867-25Q4"/>
-    <s v="Body/Shell Fabric"/>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="100% ORGANIC COTTON"/>
-    <s v="INTERLOCK"/>
-    <n v="230"/>
-    <s v="76&quot;Open"/>
-    <n v="943"/>
-    <n v="0"/>
-    <n v="943"/>
-    <n v="0"/>
-    <n v="820"/>
-    <n v="0"/>
-    <n v="864"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="44"/>
-    <m/>
-    <m/>
-    <n v="323"/>
-    <n v="288"/>
-    <s v="MTL"/>
-    <s v="16-Jun-2025"/>
-    <s v="04-Jul-2025"/>
-    <s v="07-Jul-2025"/>
-    <m/>
-  </r>
-  <r>
-    <s v="G-STAR"/>
-    <x v="2"/>
-    <s v="D26867-25Q4"/>
-    <s v="NECK + CUFF"/>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="97% Organic Cotton, 3% Elastane"/>
-    <s v="1x1 L RIB"/>
-    <n v="260"/>
-    <s v="ANY&quot;TUBE"/>
-    <n v="100"/>
-    <n v="0"/>
-    <n v="100.33"/>
-    <n v="0"/>
-    <n v="84"/>
-    <n v="0"/>
-    <n v="93"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="9"/>
-    <m/>
-    <m/>
-    <n v="45"/>
-    <n v="40"/>
-    <s v="MTL"/>
-    <s v="16-Jun-2025"/>
-    <s v="04-Jul-2025"/>
-    <s v="07-Jul-2025"/>
-    <m/>
-  </r>
-  <r>
-    <s v="G-STAR"/>
-    <x v="3"/>
-    <s v="D26823-25Q4"/>
-    <s v="Body/Shell Fabric"/>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="100% ORGANIC COTTON"/>
-    <s v="INTERLOCK"/>
-    <n v="230"/>
-    <s v="76&quot;Open"/>
-    <n v="296"/>
-    <n v="0"/>
-    <n v="298.2"/>
-    <n v="0"/>
-    <n v="249"/>
-    <n v="0"/>
-    <n v="251"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="2"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <s v="MTL"/>
-    <s v="04-Jun-2025"/>
-    <s v="01-Jul-2025"/>
-    <s v="03-Jul-2025"/>
-    <s v="Jinnat Complex"/>
-  </r>
-  <r>
-    <s v="G-STAR"/>
-    <x v="3"/>
-    <s v="D26823-25Q4"/>
-    <s v="-"/>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="97% Organic Cotton, 3% Elastane"/>
-    <s v="1x1 L RIB"/>
-    <n v="260"/>
-    <s v="ANY&quot;TUBE"/>
-    <n v="26"/>
-    <n v="0"/>
-    <n v="28.2"/>
-    <n v="0"/>
-    <n v="16"/>
-    <n v="0"/>
-    <n v="22"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="6"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <s v="MTL"/>
-    <s v="04-Jun-2025"/>
-    <s v="01-Jul-2025"/>
-    <s v="03-Jul-2025"/>
-    <m/>
-  </r>
-  <r>
-    <s v="G-STAR"/>
-    <x v="3"/>
-    <s v="D26823-25Q4"/>
-    <s v="Body/Shell Fabric"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="100% ORGANIC COTTON"/>
-    <s v="INTERLOCK"/>
-    <n v="230"/>
-    <s v="78&quot;Open"/>
-    <n v="616"/>
-    <n v="120"/>
-    <n v="602.03"/>
-    <n v="14"/>
-    <n v="441"/>
-    <n v="0"/>
-    <n v="593"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="152"/>
-    <m/>
-    <m/>
-    <n v="430"/>
-    <n v="311"/>
-    <s v="MTL"/>
-    <s v="04-Jun-2025"/>
-    <s v="01-Jul-2025"/>
-    <s v="03-Jul-2025"/>
-    <m/>
-  </r>
-  <r>
-    <s v="G-STAR"/>
-    <x v="3"/>
-    <s v="D26823-25Q4"/>
-    <s v="Neck Rib"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="97% Organic Cotton, 3% Elastane"/>
-    <s v="1x1 L RIB"/>
-    <n v="260"/>
-    <s v="ANY&quot;TUBE"/>
-    <n v="37"/>
-    <n v="0"/>
-    <n v="39.5"/>
-    <n v="0"/>
-    <n v="28"/>
-    <n v="0"/>
-    <n v="39"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="11"/>
-    <m/>
-    <m/>
-    <n v="39"/>
-    <n v="42"/>
-    <s v="MTL"/>
-    <s v="04-Jun-2025"/>
-    <s v="01-Jul-2025"/>
-    <s v="03-Jul-2025"/>
-    <m/>
-  </r>
-  <r>
-    <s v="G-STAR"/>
-    <x v="3"/>
-    <s v="D26823-25Q4"/>
-    <s v="Body/Shell Fabric"/>
-    <x v="5"/>
-    <x v="5"/>
-    <s v="100% ORGANIC COTTON"/>
-    <s v="INTERLOCK"/>
-    <n v="230"/>
-    <s v="76&quot;Open"/>
-    <n v="777"/>
-    <n v="0"/>
-    <n v="781.47"/>
-    <n v="0"/>
-    <n v="684"/>
-    <n v="0"/>
-    <n v="691"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="7"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <s v="MTL"/>
-    <s v="04-Jun-2025"/>
-    <s v="01-Jul-2025"/>
-    <s v="03-Jul-2025"/>
-    <m/>
-  </r>
-  <r>
-    <s v="G-STAR"/>
-    <x v="3"/>
-    <s v="D26823-25Q4"/>
-    <s v="Neck Rib"/>
-    <x v="5"/>
-    <x v="5"/>
-    <s v="97% Organic Cotton, 3% Elastane"/>
-    <s v="1x1 L RIB"/>
-    <n v="260"/>
-    <s v="ANY&quot;TUBE"/>
-    <n v="54"/>
-    <n v="0"/>
-    <n v="57.95"/>
-    <n v="0"/>
-    <n v="44"/>
-    <n v="0"/>
-    <n v="56"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="12"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <s v="MTL"/>
-    <s v="04-Jun-2025"/>
-    <s v="01-Jul-2025"/>
-    <s v="03-Jul-2025"/>
-    <m/>
-  </r>
-  <r>
-    <s v="G-STAR"/>
-    <x v="3"/>
-    <s v="D26823-25Q4"/>
-    <s v="Body/Shell Fabric"/>
-    <x v="6"/>
-    <x v="6"/>
-    <s v="100% ORGANIC COTTON"/>
-    <s v="INTERLOCK"/>
-    <n v="230"/>
-    <s v="76&quot;Open"/>
-    <n v="1410"/>
-    <n v="0"/>
-    <n v="1410.5"/>
-    <n v="0"/>
-    <n v="1241"/>
-    <n v="0"/>
-    <n v="1245"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="4"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <s v="MTL"/>
-    <s v="04-Jun-2025"/>
-    <s v="01-Jul-2025"/>
-    <s v="03-Jul-2025"/>
-    <m/>
-  </r>
-  <r>
-    <s v="G-STAR"/>
-    <x v="3"/>
-    <s v="D26823-25Q4"/>
-    <s v="Neck Rib"/>
-    <x v="6"/>
-    <x v="6"/>
-    <s v="97% Organic Cotton, 3% Elastane"/>
-    <s v="1x1 L RIB"/>
-    <n v="260"/>
-    <s v="ANY&quot;TUBE"/>
-    <n v="91"/>
-    <n v="0"/>
-    <n v="91.3"/>
-    <n v="0"/>
-    <n v="80"/>
-    <n v="0"/>
-    <n v="90"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="10"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <s v="MTL"/>
-    <s v="04-Jun-2025"/>
-    <s v="01-Jul-2025"/>
-    <s v="03-Jul-2025"/>
-    <m/>
-  </r>
-  <r>
-    <s v="G-STAR"/>
-    <x v="3"/>
-    <s v="D26823-25Q4"/>
-    <s v="Body/Shell Fabric"/>
-    <x v="7"/>
-    <x v="7"/>
-    <s v="100% COTTON ORGANIC"/>
-    <s v="INTERLOCK"/>
-    <n v="230"/>
-    <s v="76&quot;Open"/>
-    <n v="90"/>
-    <n v="0"/>
-    <n v="90.6"/>
-    <n v="0"/>
-    <n v="65"/>
-    <n v="0"/>
-    <n v="65"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <s v="MTL"/>
-    <s v="04-Jun-2025"/>
-    <s v="01-Jul-2025"/>
-    <s v="03-Jul-2025"/>
-    <m/>
-  </r>
-  <r>
-    <s v="G-STAR"/>
-    <x v="3"/>
-    <s v="D26823-25Q4"/>
-    <s v="Neck Rib"/>
-    <x v="7"/>
-    <x v="7"/>
-    <s v="97% Organic Cotton, 3% Elastane"/>
-    <s v="1x1 L RIB"/>
-    <n v="260"/>
-    <s v="ANY&quot;TUBE"/>
-    <n v="8"/>
-    <n v="0"/>
-    <n v="8"/>
-    <n v="0"/>
-    <n v="4"/>
-    <n v="0"/>
-    <n v="4.4000000000000004"/>
-    <n v="0"/>
-    <n v="2.6"/>
-    <n v="0"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <s v="MTL"/>
-    <s v="04-Jun-2025"/>
-    <s v="01-Jul-2025"/>
-    <s v="03-Jul-2025"/>
-    <m/>
-  </r>
-  <r>
-    <s v="G-STAR"/>
-    <x v="4"/>
-    <s v="D26855-25Q4"/>
-    <s v="Body/Shell Fabric"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="100% ORGANIC COTTON"/>
-    <s v="HEAVY JERSEY"/>
-    <n v="215"/>
-    <s v="70&quot;Open"/>
-    <n v="1411"/>
-    <n v="0"/>
-    <n v="1407.25"/>
-    <n v="4"/>
-    <n v="1284"/>
-    <n v="0"/>
-    <n v="921"/>
-    <n v="363"/>
-    <n v="381"/>
-    <n v="0"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <s v="MTL"/>
-    <s v="02-Jun-2025"/>
-    <s v="24-Jun-2025"/>
-    <s v="29-Jun-2025"/>
-    <s v="Jinnat Complex"/>
-  </r>
-  <r>
-    <s v="G-STAR"/>
-    <x v="4"/>
-    <s v="D26855-25Q4"/>
-    <s v="Neck Rib"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="97% Organic Cotton, 3% Elastane"/>
-    <s v="1x1 L RIB"/>
-    <n v="320"/>
-    <s v="ANY&quot;TUBE"/>
-    <n v="105"/>
-    <n v="0"/>
-    <n v="105.7"/>
-    <n v="0"/>
-    <n v="90"/>
-    <n v="0"/>
-    <n v="100"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="10"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <s v="MTL"/>
-    <s v="02-Jun-2025"/>
-    <s v="24-Jun-2025"/>
-    <s v="29-Jun-2025"/>
-    <m/>
-  </r>
-  <r>
-    <s v="G-STAR"/>
-    <x v="4"/>
-    <s v="D26855-25Q4"/>
-    <s v="Body/Shell Fabric"/>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="100% ORGANIC COTTON"/>
-    <s v="HEAVY JERSEY"/>
-    <n v="215"/>
-    <s v="70&quot;Open"/>
-    <n v="1507"/>
-    <n v="0"/>
-    <n v="1507"/>
-    <n v="0"/>
-    <n v="1311"/>
-    <n v="0"/>
-    <n v="1370"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="59"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <s v="MTL"/>
-    <s v="02-Jun-2025"/>
-    <s v="24-Jun-2025"/>
-    <s v="29-Jun-2025"/>
-    <m/>
-  </r>
-  <r>
-    <s v="G-STAR"/>
-    <x v="4"/>
-    <s v="D26855-25Q4"/>
-    <s v="Neck Rib"/>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="97% Organic Cotton, 3% Elastane"/>
-    <s v="1x1 L RIB"/>
-    <n v="320"/>
-    <s v="ANY&quot;TUBE"/>
-    <n v="110"/>
-    <n v="0"/>
-    <n v="107.7"/>
-    <n v="2"/>
-    <n v="91"/>
-    <n v="0"/>
-    <n v="102"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="11"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <s v="MTL"/>
-    <s v="02-Jun-2025"/>
-    <s v="24-Jun-2025"/>
-    <s v="29-Jun-2025"/>
-    <m/>
-  </r>
-  <r>
-    <s v="G-STAR"/>
-    <x v="4"/>
-    <s v="D26855-25Q4"/>
-    <s v="Body/Shell Fabric"/>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="100% ORGANIC COTTON"/>
-    <s v="HEAVY JERSEY"/>
-    <n v="215"/>
-    <s v="70&quot;Open"/>
-    <n v="1121"/>
-    <n v="0"/>
-    <n v="1118.5899999999999"/>
-    <n v="2"/>
-    <n v="975"/>
-    <n v="0"/>
-    <n v="854"/>
-    <n v="121"/>
-    <n v="126"/>
-    <n v="0"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <s v="MTL"/>
-    <s v="02-Jun-2025"/>
-    <s v="24-Jun-2025"/>
-    <s v="29-Jun-2025"/>
-    <m/>
-  </r>
-  <r>
-    <s v="G-STAR"/>
-    <x v="4"/>
-    <s v="D26855-25Q4"/>
-    <s v="Neck Rib"/>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="97% Organic Cotton, 3% Elastane"/>
-    <s v="1x1 L RIB"/>
-    <n v="320"/>
-    <s v="ANY&quot;TUBE"/>
-    <n v="83"/>
-    <n v="0"/>
-    <n v="83"/>
-    <n v="0"/>
-    <n v="68"/>
-    <n v="0"/>
-    <n v="77"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="9"/>
-    <m/>
-    <m/>
-    <n v="30"/>
-    <n v="17"/>
-    <s v="MTL"/>
-    <s v="02-Jun-2025"/>
-    <s v="24-Jun-2025"/>
-    <s v="29-Jun-2025"/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2C3D8B5-74AB-4889-9CBE-C17204FE4BA7}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:A9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="29">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="10">
-        <item x="2"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="10">
-        <item x="2"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1778,71 +861,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE3B608-B827-4227-802C-09945EA23CD8}">
-  <dimension ref="A3:A9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AC29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1933,7 +959,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -1959,40 +985,40 @@
         <v>36</v>
       </c>
       <c r="I2" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="K2" s="2">
-        <v>193</v>
+        <v>2545</v>
       </c>
       <c r="L2" s="2">
         <v>0</v>
       </c>
       <c r="M2" s="2">
-        <v>193</v>
+        <v>441.35</v>
       </c>
       <c r="N2" s="2">
-        <v>0</v>
+        <v>2104</v>
       </c>
       <c r="O2" s="2">
-        <v>162</v>
+        <v>2036</v>
       </c>
       <c r="P2" s="2">
         <v>0</v>
       </c>
       <c r="Q2" s="2">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="R2" s="2">
-        <v>0</v>
+        <v>2036</v>
       </c>
       <c r="S2" s="2">
         <v>0</v>
       </c>
       <c r="T2" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -2012,13 +1038,13 @@
         <v>40</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -2029,55 +1055,55 @@
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="2">
+        <v>150</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="2">
+        <v>61</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>50.5</v>
+      </c>
+      <c r="N3" s="2">
+        <v>11</v>
+      </c>
+      <c r="O3" s="2">
         <v>44</v>
       </c>
-      <c r="I3" s="2">
-        <v>320</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="2">
-        <v>26</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>26</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2">
-        <v>16</v>
-      </c>
       <c r="P3" s="2">
         <v>0</v>
       </c>
       <c r="Q3" s="2">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="R3" s="2">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="S3" s="2">
         <v>0</v>
       </c>
       <c r="T3" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
@@ -2097,67 +1123,67 @@
         <v>40</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AC3" s="2"/>
     </row>
-    <row r="4" spans="1:29" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="I4" s="2">
-        <v>215</v>
+        <v>320</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K4" s="2">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="L4" s="2">
         <v>0</v>
       </c>
       <c r="M4" s="2">
-        <v>173</v>
+        <v>153.63</v>
       </c>
       <c r="N4" s="2">
         <v>0</v>
       </c>
       <c r="O4" s="2">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="P4" s="2">
         <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="R4" s="2">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="S4" s="2">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="T4" s="2">
         <v>0</v>
@@ -2174,78 +1200,76 @@
         <v>38</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC4" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="AC4" s="2"/>
     </row>
-    <row r="5" spans="1:29" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I5" s="2">
         <v>320</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K5" s="2">
-        <v>20</v>
+        <v>439</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
       </c>
       <c r="M5" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>0</v>
+        <v>439</v>
       </c>
       <c r="O5" s="2">
-        <v>13</v>
+        <v>386</v>
       </c>
       <c r="P5" s="2">
         <v>0</v>
       </c>
       <c r="Q5" s="2">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="R5" s="2">
-        <v>0</v>
+        <v>386</v>
       </c>
       <c r="S5" s="2">
         <v>0</v>
       </c>
       <c r="T5" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
@@ -2256,79 +1280,81 @@
         <v>0</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC5" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="I6" s="2">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="K6" s="2">
-        <v>185</v>
+        <v>9</v>
       </c>
       <c r="L6" s="2">
         <v>0</v>
       </c>
       <c r="M6" s="2">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O6" s="2">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="P6" s="2">
         <v>0</v>
       </c>
       <c r="Q6" s="2">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S6" s="2">
         <v>0</v>
       </c>
       <c r="T6" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
@@ -2339,79 +1365,79 @@
         <v>0</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="AC6" s="2"/>
     </row>
-    <row r="7" spans="1:29" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I7" s="2">
         <v>320</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="K7" s="2">
-        <v>20</v>
+        <v>1710</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
       </c>
       <c r="M7" s="2">
-        <v>20</v>
+        <v>1710</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
       </c>
       <c r="O7" s="2">
-        <v>13</v>
+        <v>1505</v>
       </c>
       <c r="P7" s="2">
         <v>0</v>
       </c>
       <c r="Q7" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="R7" s="2">
-        <v>0</v>
+        <v>1505</v>
       </c>
       <c r="S7" s="2">
         <v>0</v>
       </c>
       <c r="T7" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
@@ -2422,73 +1448,75 @@
         <v>0</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC7" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="I8" s="2">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="K8" s="2">
-        <v>1125</v>
+        <v>121</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
       </c>
       <c r="M8" s="2">
-        <v>1129.02</v>
+        <v>118.3</v>
       </c>
       <c r="N8" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O8" s="2">
-        <v>1024</v>
+        <v>97</v>
       </c>
       <c r="P8" s="2">
         <v>0</v>
       </c>
       <c r="Q8" s="2">
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="R8" s="2">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="S8" s="2">
         <v>0</v>
@@ -2505,164 +1533,162 @@
         <v>0</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC8" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="AC8" s="2"/>
     </row>
-    <row r="9" spans="1:29" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I9" s="2">
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="K9" s="2">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>
       </c>
       <c r="M9" s="2">
-        <v>121</v>
+        <v>106.12</v>
       </c>
       <c r="N9" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O9" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="P9" s="2">
         <v>0</v>
       </c>
       <c r="Q9" s="2">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="R9" s="2">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="S9" s="2">
         <v>0</v>
       </c>
       <c r="T9" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="X9" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AC9" s="2"/>
     </row>
-    <row r="10" spans="1:29" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>56</v>
       </c>
       <c r="I10" s="2">
-        <v>230</v>
+        <v>320</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K10" s="2">
-        <v>1129</v>
+        <v>855</v>
       </c>
       <c r="L10" s="2">
         <v>0</v>
       </c>
       <c r="M10" s="2">
-        <v>1128.7</v>
+        <v>855.17</v>
       </c>
       <c r="N10" s="2">
         <v>0</v>
       </c>
       <c r="O10" s="2">
-        <v>982</v>
+        <v>752</v>
       </c>
       <c r="P10" s="2">
         <v>0</v>
       </c>
       <c r="Q10" s="2">
-        <v>1002</v>
+        <v>0</v>
       </c>
       <c r="R10" s="2">
-        <v>0</v>
+        <v>752</v>
       </c>
       <c r="S10" s="2">
         <v>0</v>
       </c>
       <c r="T10" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
@@ -2673,328 +1699,330 @@
         <v>0</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AC10" s="2"/>
     </row>
-    <row r="11" spans="1:29" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="I11" s="2">
+        <v>150</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="2">
         <v>64</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="2">
-        <v>260</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="2">
-        <v>119</v>
-      </c>
       <c r="L11" s="2">
         <v>0</v>
       </c>
       <c r="M11" s="2">
-        <v>119.52</v>
+        <v>68.650000000000006</v>
       </c>
       <c r="N11" s="2">
         <v>0</v>
       </c>
       <c r="O11" s="2">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="P11" s="2">
         <v>0</v>
       </c>
       <c r="Q11" s="2">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="R11" s="2">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="S11" s="2">
         <v>0</v>
       </c>
       <c r="T11" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="X11" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AC11" s="2"/>
     </row>
-    <row r="12" spans="1:29" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="I12" s="2">
-        <v>230</v>
+        <v>460</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K12" s="2">
-        <v>943</v>
+        <v>62</v>
       </c>
       <c r="L12" s="2">
         <v>0</v>
       </c>
       <c r="M12" s="2">
-        <v>943</v>
+        <v>56.13</v>
       </c>
       <c r="N12" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O12" s="2">
-        <v>820</v>
+        <v>51</v>
       </c>
       <c r="P12" s="2">
         <v>0</v>
       </c>
       <c r="Q12" s="2">
-        <v>864</v>
+        <v>0</v>
       </c>
       <c r="R12" s="2">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="S12" s="2">
         <v>0</v>
       </c>
       <c r="T12" s="2">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2">
-        <v>323</v>
+        <v>0</v>
       </c>
       <c r="X12" s="2">
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AC12" s="2"/>
     </row>
-    <row r="13" spans="1:29" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="G13" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="I13" s="2">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="K13" s="2">
-        <v>100</v>
+        <v>1895</v>
       </c>
       <c r="L13" s="2">
         <v>0</v>
       </c>
       <c r="M13" s="2">
-        <v>100.33</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>0</v>
+        <v>1895</v>
       </c>
       <c r="O13" s="2">
-        <v>84</v>
+        <v>1554</v>
       </c>
       <c r="P13" s="2">
         <v>0</v>
       </c>
       <c r="Q13" s="2">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="R13" s="2">
-        <v>0</v>
+        <v>1554</v>
       </c>
       <c r="S13" s="2">
         <v>0</v>
       </c>
       <c r="T13" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="X13" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="AB13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AC13" s="2"/>
+      <c r="AC13" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="14" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I14" s="2">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K14" s="2">
-        <v>296</v>
+        <v>35</v>
       </c>
       <c r="L14" s="2">
         <v>0</v>
       </c>
       <c r="M14" s="2">
-        <v>298.2</v>
+        <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O14" s="2">
-        <v>249</v>
+        <v>23</v>
       </c>
       <c r="P14" s="2">
         <v>0</v>
       </c>
       <c r="Q14" s="2">
-        <v>251</v>
+        <v>0</v>
       </c>
       <c r="R14" s="2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="S14" s="2">
         <v>0</v>
       </c>
       <c r="T14" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
@@ -3008,78 +2036,76 @@
         <v>38</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC14" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="AC14" s="2"/>
     </row>
-    <row r="15" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="I15" s="2">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="K15" s="2">
-        <v>26</v>
+        <v>850</v>
       </c>
       <c r="L15" s="2">
         <v>0</v>
       </c>
       <c r="M15" s="2">
-        <v>28.2</v>
+        <v>468.85</v>
       </c>
       <c r="N15" s="2">
-        <v>0</v>
+        <v>381</v>
       </c>
       <c r="O15" s="2">
-        <v>16</v>
+        <v>748</v>
       </c>
       <c r="P15" s="2">
         <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R15" s="2">
-        <v>0</v>
+        <v>748</v>
       </c>
       <c r="S15" s="2">
         <v>0</v>
       </c>
       <c r="T15" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
@@ -3090,245 +2116,247 @@
         <v>0</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC15" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="16" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="I16" s="2">
-        <v>230</v>
+        <v>320</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="K16" s="2">
-        <v>616</v>
+        <v>212</v>
       </c>
       <c r="L16" s="2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M16" s="2">
-        <v>602.03</v>
+        <v>210.35</v>
       </c>
       <c r="N16" s="2">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="O16" s="2">
-        <v>441</v>
+        <v>176</v>
       </c>
       <c r="P16" s="2">
         <v>0</v>
       </c>
       <c r="Q16" s="2">
-        <v>593</v>
+        <v>0</v>
       </c>
       <c r="R16" s="2">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="S16" s="2">
         <v>0</v>
       </c>
       <c r="T16" s="2">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2">
-        <v>430</v>
+        <v>0</v>
       </c>
       <c r="X16" s="2">
-        <v>311</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="AC16" s="2"/>
     </row>
-    <row r="17" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="H17" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I17" s="2">
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="K17" s="2">
-        <v>37</v>
+        <v>203</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
       </c>
       <c r="M17" s="2">
-        <v>39.5</v>
+        <v>203</v>
       </c>
       <c r="N17" s="2">
         <v>0</v>
       </c>
       <c r="O17" s="2">
-        <v>28</v>
+        <v>187</v>
       </c>
       <c r="P17" s="2">
         <v>0</v>
       </c>
       <c r="Q17" s="2">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="R17" s="2">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="S17" s="2">
         <v>0</v>
       </c>
       <c r="T17" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="X17" s="2">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="AC17" s="2"/>
     </row>
-    <row r="18" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="I18" s="2">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="J18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" s="2">
         <v>65</v>
       </c>
-      <c r="K18" s="2">
-        <v>777</v>
-      </c>
       <c r="L18" s="2">
         <v>0</v>
       </c>
       <c r="M18" s="2">
-        <v>781.47</v>
+        <v>65</v>
       </c>
       <c r="N18" s="2">
         <v>0</v>
       </c>
       <c r="O18" s="2">
-        <v>684</v>
+        <v>58</v>
       </c>
       <c r="P18" s="2">
         <v>0</v>
       </c>
       <c r="Q18" s="2">
-        <v>691</v>
+        <v>0</v>
       </c>
       <c r="R18" s="2">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="S18" s="2">
         <v>0</v>
       </c>
       <c r="T18" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
@@ -3339,79 +2367,79 @@
         <v>0</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="AC18" s="2"/>
     </row>
-    <row r="19" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="I19" s="2">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="K19" s="2">
-        <v>54</v>
+        <v>1127</v>
       </c>
       <c r="L19" s="2">
         <v>0</v>
       </c>
       <c r="M19" s="2">
-        <v>57.95</v>
+        <v>1127</v>
       </c>
       <c r="N19" s="2">
         <v>0</v>
       </c>
       <c r="O19" s="2">
-        <v>44</v>
+        <v>1003</v>
       </c>
       <c r="P19" s="2">
         <v>0</v>
       </c>
       <c r="Q19" s="2">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="R19" s="2">
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="S19" s="2">
         <v>0</v>
       </c>
       <c r="T19" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
@@ -3422,79 +2450,81 @@
         <v>0</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC19" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="20" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="I20" s="2">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="K20" s="2">
-        <v>1410</v>
+        <v>552</v>
       </c>
       <c r="L20" s="2">
         <v>0</v>
       </c>
       <c r="M20" s="2">
-        <v>1410.5</v>
+        <v>552</v>
       </c>
       <c r="N20" s="2">
         <v>0</v>
       </c>
       <c r="O20" s="2">
-        <v>1241</v>
+        <v>480</v>
       </c>
       <c r="P20" s="2">
         <v>0</v>
       </c>
       <c r="Q20" s="2">
-        <v>1245</v>
+        <v>0</v>
       </c>
       <c r="R20" s="2">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="S20" s="2">
         <v>0</v>
       </c>
       <c r="T20" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
@@ -3505,79 +2535,79 @@
         <v>0</v>
       </c>
       <c r="Y20" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Z20" s="2" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="AB20" s="2" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="AC20" s="2"/>
     </row>
-    <row r="21" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="I21" s="2">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="K21" s="2">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="L21" s="2">
         <v>0</v>
       </c>
       <c r="M21" s="2">
-        <v>91.3</v>
+        <v>106</v>
       </c>
       <c r="N21" s="2">
         <v>0</v>
       </c>
       <c r="O21" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="P21" s="2">
         <v>0</v>
       </c>
       <c r="Q21" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="R21" s="2">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="S21" s="2">
         <v>0</v>
       </c>
       <c r="T21" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
@@ -3588,73 +2618,73 @@
         <v>0</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Z21" s="2" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="AB21" s="2" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="AC21" s="2"/>
     </row>
-    <row r="22" spans="1:29" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="I22" s="2">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="K22" s="2">
-        <v>90</v>
+        <v>985</v>
       </c>
       <c r="L22" s="2">
         <v>0</v>
       </c>
       <c r="M22" s="2">
-        <v>90.6</v>
+        <v>984.7</v>
       </c>
       <c r="N22" s="2">
         <v>0</v>
       </c>
       <c r="O22" s="2">
-        <v>65</v>
+        <v>877</v>
       </c>
       <c r="P22" s="2">
         <v>0</v>
       </c>
       <c r="Q22" s="2">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="R22" s="2">
-        <v>0</v>
+        <v>877</v>
       </c>
       <c r="S22" s="2">
         <v>0</v>
@@ -3671,76 +2701,76 @@
         <v>0</v>
       </c>
       <c r="Y22" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Z22" s="2" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="AB22" s="2" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="AC22" s="2"/>
     </row>
-    <row r="23" spans="1:29" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="120" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="I23" s="2">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="K23" s="2">
-        <v>8</v>
+        <v>472</v>
       </c>
       <c r="L23" s="2">
         <v>0</v>
       </c>
       <c r="M23" s="2">
-        <v>8</v>
+        <v>472.53</v>
       </c>
       <c r="N23" s="2">
         <v>0</v>
       </c>
       <c r="O23" s="2">
-        <v>4</v>
+        <v>420</v>
       </c>
       <c r="P23" s="2">
         <v>0</v>
       </c>
       <c r="Q23" s="2">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="R23" s="2">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="S23" s="2">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="T23" s="2">
         <v>0</v>
@@ -3754,76 +2784,76 @@
         <v>0</v>
       </c>
       <c r="Y23" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Z23" s="2" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="AB23" s="2" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="AC23" s="2"/>
     </row>
-    <row r="24" spans="1:29" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="H24" s="2" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="I24" s="2">
-        <v>215</v>
+        <v>320</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="K24" s="2">
-        <v>1411</v>
+        <v>89</v>
       </c>
       <c r="L24" s="2">
         <v>0</v>
       </c>
       <c r="M24" s="2">
-        <v>1407.25</v>
+        <v>88.7</v>
       </c>
       <c r="N24" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O24" s="2">
-        <v>1284</v>
+        <v>80</v>
       </c>
       <c r="P24" s="2">
         <v>0</v>
       </c>
       <c r="Q24" s="2">
-        <v>921</v>
+        <v>0</v>
       </c>
       <c r="R24" s="2">
-        <v>363</v>
+        <v>80</v>
       </c>
       <c r="S24" s="2">
-        <v>381</v>
+        <v>0</v>
       </c>
       <c r="T24" s="2">
         <v>0</v>
@@ -3837,81 +2867,79 @@
         <v>0</v>
       </c>
       <c r="Y24" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Z24" s="2" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="AA24" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="AB24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC24" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="AC24" s="2"/>
     </row>
-    <row r="25" spans="1:29" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="I25" s="2">
-        <v>320</v>
+        <v>210</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="K25" s="2">
-        <v>105</v>
+        <v>929</v>
       </c>
       <c r="L25" s="2">
         <v>0</v>
       </c>
       <c r="M25" s="2">
-        <v>105.7</v>
+        <v>925.24</v>
       </c>
       <c r="N25" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O25" s="2">
-        <v>90</v>
+        <v>827</v>
       </c>
       <c r="P25" s="2">
         <v>0</v>
       </c>
       <c r="Q25" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R25" s="2">
-        <v>0</v>
+        <v>827</v>
       </c>
       <c r="S25" s="2">
         <v>0</v>
       </c>
       <c r="T25" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
@@ -3922,79 +2950,79 @@
         <v>0</v>
       </c>
       <c r="Y25" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Z25" s="2" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="AB25" s="2" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="AC25" s="2"/>
     </row>
-    <row r="26" spans="1:29" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="I26" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="K26" s="2">
-        <v>1507</v>
+        <v>458</v>
       </c>
       <c r="L26" s="2">
         <v>0</v>
       </c>
       <c r="M26" s="2">
-        <v>1507</v>
+        <v>458.86</v>
       </c>
       <c r="N26" s="2">
         <v>0</v>
       </c>
       <c r="O26" s="2">
-        <v>1311</v>
+        <v>396</v>
       </c>
       <c r="P26" s="2">
         <v>0</v>
       </c>
       <c r="Q26" s="2">
-        <v>1370</v>
+        <v>0</v>
       </c>
       <c r="R26" s="2">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="S26" s="2">
         <v>0</v>
       </c>
       <c r="T26" s="2">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
@@ -4005,79 +3033,79 @@
         <v>0</v>
       </c>
       <c r="Y26" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Z26" s="2" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="AA26" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="AB26" s="2" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="AC26" s="2"/>
     </row>
-    <row r="27" spans="1:29" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="I27" s="2">
         <v>320</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="K27" s="2">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="L27" s="2">
         <v>0</v>
       </c>
       <c r="M27" s="2">
-        <v>107.7</v>
+        <v>291.60000000000002</v>
       </c>
       <c r="N27" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O27" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="P27" s="2">
         <v>0</v>
       </c>
       <c r="Q27" s="2">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="R27" s="2">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="S27" s="2">
         <v>0</v>
       </c>
       <c r="T27" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
@@ -4088,76 +3116,76 @@
         <v>0</v>
       </c>
       <c r="Y27" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Z27" s="2" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="AA27" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="AB27" s="2" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="AC27" s="2"/>
     </row>
-    <row r="28" spans="1:29" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="120" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="I28" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="K28" s="2">
-        <v>1121</v>
+        <v>411</v>
       </c>
       <c r="L28" s="2">
         <v>0</v>
       </c>
       <c r="M28" s="2">
-        <v>1118.5899999999999</v>
+        <v>411.46</v>
       </c>
       <c r="N28" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O28" s="2">
-        <v>975</v>
+        <v>349</v>
       </c>
       <c r="P28" s="2">
         <v>0</v>
       </c>
       <c r="Q28" s="2">
-        <v>854</v>
+        <v>0</v>
       </c>
       <c r="R28" s="2">
-        <v>121</v>
+        <v>349</v>
       </c>
       <c r="S28" s="2">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="T28" s="2">
         <v>0</v>
@@ -4171,110 +3199,2607 @@
         <v>0</v>
       </c>
       <c r="Y28" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Z28" s="2" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="AA28" s="2" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="AB28" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC28" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="29" spans="1:29" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="I29" s="2">
-        <v>320</v>
+        <v>210</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="K29" s="2">
-        <v>83</v>
+        <v>594</v>
       </c>
       <c r="L29" s="2">
         <v>0</v>
       </c>
       <c r="M29" s="2">
-        <v>83</v>
+        <v>593.71</v>
       </c>
       <c r="N29" s="2">
         <v>0</v>
       </c>
       <c r="O29" s="2">
-        <v>68</v>
+        <v>523</v>
       </c>
       <c r="P29" s="2">
         <v>0</v>
       </c>
       <c r="Q29" s="2">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="R29" s="2">
-        <v>0</v>
+        <v>523</v>
       </c>
       <c r="S29" s="2">
         <v>0</v>
       </c>
       <c r="T29" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X29" s="2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Z29" s="2" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="AB29" s="2" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="AC29" s="2"/>
     </row>
+    <row r="30" spans="1:29" ht="120" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I30" s="2">
+        <v>210</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K30" s="2">
+        <v>411</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <v>411</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2">
+        <v>349</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0</v>
+      </c>
+      <c r="R30" s="2">
+        <v>349</v>
+      </c>
+      <c r="S30" s="2">
+        <v>0</v>
+      </c>
+      <c r="T30" s="2">
+        <v>0</v>
+      </c>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2">
+        <v>0</v>
+      </c>
+      <c r="X30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB30" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC30" s="2"/>
+    </row>
+    <row r="31" spans="1:29" ht="120" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I31" s="2">
+        <v>210</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1388</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1387.7</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2">
+        <v>1221</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>0</v>
+      </c>
+      <c r="R31" s="2">
+        <v>1221</v>
+      </c>
+      <c r="S31" s="2">
+        <v>0</v>
+      </c>
+      <c r="T31" s="2">
+        <v>0</v>
+      </c>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2">
+        <v>0</v>
+      </c>
+      <c r="X31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB31" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC31" s="2"/>
+    </row>
+    <row r="32" spans="1:29" ht="120" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I32" s="2">
+        <v>210</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K32" s="2">
+        <v>406</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
+        <v>405.08</v>
+      </c>
+      <c r="N32" s="2">
+        <v>1</v>
+      </c>
+      <c r="O32" s="2">
+        <v>349</v>
+      </c>
+      <c r="P32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>0</v>
+      </c>
+      <c r="R32" s="2">
+        <v>349</v>
+      </c>
+      <c r="S32" s="2">
+        <v>0</v>
+      </c>
+      <c r="T32" s="2">
+        <v>0</v>
+      </c>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2">
+        <v>0</v>
+      </c>
+      <c r="X32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA32" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB32" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC32" s="2"/>
+    </row>
+    <row r="33" spans="1:29" ht="120" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I33" s="2">
+        <v>210</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K33" s="2">
+        <v>2378</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
+        <v>2378</v>
+      </c>
+      <c r="N33" s="2">
+        <v>0</v>
+      </c>
+      <c r="O33" s="2">
+        <v>2093</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0</v>
+      </c>
+      <c r="R33" s="2">
+        <v>2093</v>
+      </c>
+      <c r="S33" s="2">
+        <v>0</v>
+      </c>
+      <c r="T33" s="2">
+        <v>0</v>
+      </c>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2">
+        <v>0</v>
+      </c>
+      <c r="X33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB33" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC33" s="2"/>
+    </row>
+    <row r="34" spans="1:29" ht="120" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I34" s="2">
+        <v>210</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K34" s="2">
+        <v>406</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <v>406</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
+        <v>349</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0</v>
+      </c>
+      <c r="R34" s="2">
+        <v>349</v>
+      </c>
+      <c r="S34" s="2">
+        <v>0</v>
+      </c>
+      <c r="T34" s="2">
+        <v>0</v>
+      </c>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2">
+        <v>0</v>
+      </c>
+      <c r="X34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC34" s="2"/>
+    </row>
+    <row r="35" spans="1:29" ht="120" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I35" s="2">
+        <v>210</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K35" s="2">
+        <v>2378</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
+        <v>1150.79</v>
+      </c>
+      <c r="N35" s="2">
+        <v>1227</v>
+      </c>
+      <c r="O35" s="2">
+        <v>2093</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0</v>
+      </c>
+      <c r="R35" s="2">
+        <v>2093</v>
+      </c>
+      <c r="S35" s="2">
+        <v>0</v>
+      </c>
+      <c r="T35" s="2">
+        <v>0</v>
+      </c>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2">
+        <v>0</v>
+      </c>
+      <c r="X35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA35" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB35" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC35" s="2"/>
+    </row>
+    <row r="36" spans="1:29" ht="120" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I36" s="2">
+        <v>210</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K36" s="2">
+        <v>2973</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
+        <v>2973</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0</v>
+      </c>
+      <c r="O36" s="2">
+        <v>2616</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>0</v>
+      </c>
+      <c r="R36" s="2">
+        <v>2616</v>
+      </c>
+      <c r="S36" s="2">
+        <v>0</v>
+      </c>
+      <c r="T36" s="2">
+        <v>0</v>
+      </c>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2">
+        <v>0</v>
+      </c>
+      <c r="X36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA36" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB36" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC36" s="2"/>
+    </row>
+    <row r="37" spans="1:29" ht="120" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I37" s="2">
+        <v>210</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K37" s="2">
+        <v>2180</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2">
+        <v>2178.7600000000002</v>
+      </c>
+      <c r="N37" s="2">
+        <v>1</v>
+      </c>
+      <c r="O37" s="2">
+        <v>1918</v>
+      </c>
+      <c r="P37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>0</v>
+      </c>
+      <c r="R37" s="2">
+        <v>1918</v>
+      </c>
+      <c r="S37" s="2">
+        <v>0</v>
+      </c>
+      <c r="T37" s="2">
+        <v>0</v>
+      </c>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2">
+        <v>0</v>
+      </c>
+      <c r="X37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA37" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB37" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC37" s="2"/>
+    </row>
+    <row r="38" spans="1:29" ht="120" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I38" s="2">
+        <v>210</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K38" s="2">
+        <v>406</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2">
+        <v>405.97</v>
+      </c>
+      <c r="N38" s="2">
+        <v>0</v>
+      </c>
+      <c r="O38" s="2">
+        <v>349</v>
+      </c>
+      <c r="P38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>0</v>
+      </c>
+      <c r="R38" s="2">
+        <v>349</v>
+      </c>
+      <c r="S38" s="2">
+        <v>0</v>
+      </c>
+      <c r="T38" s="2">
+        <v>0</v>
+      </c>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2">
+        <v>0</v>
+      </c>
+      <c r="X38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA38" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB38" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC38" s="2"/>
+    </row>
+    <row r="39" spans="1:29" ht="120" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I39" s="2">
+        <v>210</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K39" s="2">
+        <v>406</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
+      <c r="M39" s="2">
+        <v>407.22</v>
+      </c>
+      <c r="N39" s="2">
+        <v>0</v>
+      </c>
+      <c r="O39" s="2">
+        <v>349</v>
+      </c>
+      <c r="P39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>0</v>
+      </c>
+      <c r="R39" s="2">
+        <v>349</v>
+      </c>
+      <c r="S39" s="2">
+        <v>0</v>
+      </c>
+      <c r="T39" s="2">
+        <v>0</v>
+      </c>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2">
+        <v>0</v>
+      </c>
+      <c r="X39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA39" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB39" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC39" s="2"/>
+    </row>
+    <row r="40" spans="1:29" ht="120" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I40" s="2">
+        <v>210</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K40" s="2">
+        <v>1031</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2">
+        <v>1029.1400000000001</v>
+      </c>
+      <c r="N40" s="2">
+        <v>2</v>
+      </c>
+      <c r="O40" s="2">
+        <v>907</v>
+      </c>
+      <c r="P40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>0</v>
+      </c>
+      <c r="R40" s="2">
+        <v>907</v>
+      </c>
+      <c r="S40" s="2">
+        <v>0</v>
+      </c>
+      <c r="T40" s="2">
+        <v>0</v>
+      </c>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2">
+        <v>0</v>
+      </c>
+      <c r="X40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z40" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB40" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC40" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" ht="120" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I41" s="2">
+        <v>210</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K41" s="2">
+        <v>2022</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0</v>
+      </c>
+      <c r="M41" s="2">
+        <v>2021.58</v>
+      </c>
+      <c r="N41" s="2">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2">
+        <v>1779</v>
+      </c>
+      <c r="P41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>0</v>
+      </c>
+      <c r="R41" s="2">
+        <v>1779</v>
+      </c>
+      <c r="S41" s="2">
+        <v>0</v>
+      </c>
+      <c r="T41" s="2">
+        <v>0</v>
+      </c>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2">
+        <v>0</v>
+      </c>
+      <c r="X41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z41" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB41" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC41" s="2"/>
+    </row>
+    <row r="42" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I42" s="2">
+        <v>290</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1864</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
+      <c r="M42" s="2">
+        <v>1864</v>
+      </c>
+      <c r="N42" s="2">
+        <v>0</v>
+      </c>
+      <c r="O42" s="2">
+        <v>1640</v>
+      </c>
+      <c r="P42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>0</v>
+      </c>
+      <c r="R42" s="2">
+        <v>1640</v>
+      </c>
+      <c r="S42" s="2">
+        <v>0</v>
+      </c>
+      <c r="T42" s="2">
+        <v>0</v>
+      </c>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2">
+        <v>0</v>
+      </c>
+      <c r="X42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA42" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB42" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC42" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I43" s="2">
+        <v>460</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K43" s="2">
+        <v>141</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2">
+        <v>141</v>
+      </c>
+      <c r="N43" s="2">
+        <v>0</v>
+      </c>
+      <c r="O43" s="2">
+        <v>127</v>
+      </c>
+      <c r="P43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>0</v>
+      </c>
+      <c r="R43" s="2">
+        <v>127</v>
+      </c>
+      <c r="S43" s="2">
+        <v>0</v>
+      </c>
+      <c r="T43" s="2">
+        <v>0</v>
+      </c>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2">
+        <v>0</v>
+      </c>
+      <c r="X43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z43" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA43" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB43" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC43" s="2"/>
+    </row>
+    <row r="44" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I44" s="2">
+        <v>150</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K44" s="2">
+        <v>137</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+      <c r="M44" s="2">
+        <v>137</v>
+      </c>
+      <c r="N44" s="2">
+        <v>0</v>
+      </c>
+      <c r="O44" s="2">
+        <v>122</v>
+      </c>
+      <c r="P44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>0</v>
+      </c>
+      <c r="R44" s="2">
+        <v>122</v>
+      </c>
+      <c r="S44" s="2">
+        <v>0</v>
+      </c>
+      <c r="T44" s="2">
+        <v>0</v>
+      </c>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2">
+        <v>0</v>
+      </c>
+      <c r="X44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA44" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB44" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC44" s="2"/>
+    </row>
+    <row r="45" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I45" s="2">
+        <v>290</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K45" s="2">
+        <v>3373</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0</v>
+      </c>
+      <c r="M45" s="2">
+        <v>3347.34</v>
+      </c>
+      <c r="N45" s="2">
+        <v>26</v>
+      </c>
+      <c r="O45" s="2">
+        <v>2968</v>
+      </c>
+      <c r="P45" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>0</v>
+      </c>
+      <c r="R45" s="2">
+        <v>2968</v>
+      </c>
+      <c r="S45" s="2">
+        <v>0</v>
+      </c>
+      <c r="T45" s="2">
+        <v>0</v>
+      </c>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2">
+        <v>0</v>
+      </c>
+      <c r="X45" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z45" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA45" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB45" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC45" s="2"/>
+    </row>
+    <row r="46" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I46" s="2">
+        <v>460</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K46" s="2">
+        <v>250</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0</v>
+      </c>
+      <c r="M46" s="2">
+        <v>249.52</v>
+      </c>
+      <c r="N46" s="2">
+        <v>0</v>
+      </c>
+      <c r="O46" s="2">
+        <v>230</v>
+      </c>
+      <c r="P46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>0</v>
+      </c>
+      <c r="R46" s="2">
+        <v>230</v>
+      </c>
+      <c r="S46" s="2">
+        <v>0</v>
+      </c>
+      <c r="T46" s="2">
+        <v>0</v>
+      </c>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2">
+        <v>0</v>
+      </c>
+      <c r="X46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z46" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA46" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC46" s="2"/>
+    </row>
+    <row r="47" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I47" s="2">
+        <v>150</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K47" s="2">
+        <v>249</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2">
+        <v>249.04</v>
+      </c>
+      <c r="N47" s="2">
+        <v>0</v>
+      </c>
+      <c r="O47" s="2">
+        <v>222</v>
+      </c>
+      <c r="P47" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>0</v>
+      </c>
+      <c r="R47" s="2">
+        <v>222</v>
+      </c>
+      <c r="S47" s="2">
+        <v>0</v>
+      </c>
+      <c r="T47" s="2">
+        <v>0</v>
+      </c>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2">
+        <v>0</v>
+      </c>
+      <c r="X47" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z47" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA47" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB47" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC47" s="2"/>
+    </row>
+    <row r="48" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I48" s="2">
+        <v>340</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K48" s="2">
+        <v>1650</v>
+      </c>
+      <c r="L48" s="2">
+        <v>0</v>
+      </c>
+      <c r="M48" s="2">
+        <v>1639.25</v>
+      </c>
+      <c r="N48" s="2">
+        <v>11</v>
+      </c>
+      <c r="O48" s="2">
+        <v>1452</v>
+      </c>
+      <c r="P48" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>0</v>
+      </c>
+      <c r="R48" s="2">
+        <v>1452</v>
+      </c>
+      <c r="S48" s="2">
+        <v>0</v>
+      </c>
+      <c r="T48" s="2">
+        <v>0</v>
+      </c>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2">
+        <v>0</v>
+      </c>
+      <c r="X48" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z48" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA48" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB48" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC48" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I49" s="2">
+        <v>460</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K49" s="2">
+        <v>407</v>
+      </c>
+      <c r="L49" s="2">
+        <v>0</v>
+      </c>
+      <c r="M49" s="2">
+        <v>407</v>
+      </c>
+      <c r="N49" s="2">
+        <v>0</v>
+      </c>
+      <c r="O49" s="2">
+        <v>354</v>
+      </c>
+      <c r="P49" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>0</v>
+      </c>
+      <c r="R49" s="2">
+        <v>354</v>
+      </c>
+      <c r="S49" s="2">
+        <v>0</v>
+      </c>
+      <c r="T49" s="2">
+        <v>0</v>
+      </c>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2">
+        <v>0</v>
+      </c>
+      <c r="X49" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z49" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA49" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB49" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC49" s="2"/>
+    </row>
+    <row r="50" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I50" s="2">
+        <v>150</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K50" s="2">
+        <v>18</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="N50" s="2">
+        <v>0</v>
+      </c>
+      <c r="O50" s="2">
+        <v>11</v>
+      </c>
+      <c r="P50" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>0</v>
+      </c>
+      <c r="R50" s="2">
+        <v>11</v>
+      </c>
+      <c r="S50" s="2">
+        <v>0</v>
+      </c>
+      <c r="T50" s="2">
+        <v>0</v>
+      </c>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2">
+        <v>0</v>
+      </c>
+      <c r="X50" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z50" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA50" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB50" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC50" s="2"/>
+    </row>
+    <row r="51" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I51" s="2">
+        <v>140</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K51" s="2">
+        <v>260</v>
+      </c>
+      <c r="L51" s="2">
+        <v>0</v>
+      </c>
+      <c r="M51" s="2">
+        <v>261.2</v>
+      </c>
+      <c r="N51" s="2">
+        <v>0</v>
+      </c>
+      <c r="O51" s="2">
+        <v>216</v>
+      </c>
+      <c r="P51" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>0</v>
+      </c>
+      <c r="R51" s="2">
+        <v>216</v>
+      </c>
+      <c r="S51" s="2">
+        <v>0</v>
+      </c>
+      <c r="T51" s="2">
+        <v>0</v>
+      </c>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2">
+        <v>0</v>
+      </c>
+      <c r="X51" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z51" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA51" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB51" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC51" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I52" s="2">
+        <v>200</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K52" s="2">
+        <v>27</v>
+      </c>
+      <c r="L52" s="2">
+        <v>0</v>
+      </c>
+      <c r="M52" s="2">
+        <v>26</v>
+      </c>
+      <c r="N52" s="2">
+        <v>1</v>
+      </c>
+      <c r="O52" s="2">
+        <v>17</v>
+      </c>
+      <c r="P52" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>0</v>
+      </c>
+      <c r="R52" s="2">
+        <v>17</v>
+      </c>
+      <c r="S52" s="2">
+        <v>0</v>
+      </c>
+      <c r="T52" s="2">
+        <v>0</v>
+      </c>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2">
+        <v>0</v>
+      </c>
+      <c r="X52" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z52" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC52" s="2"/>
+    </row>
+    <row r="53" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I53" s="2">
+        <v>200</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K53" s="2">
+        <v>1375</v>
+      </c>
+      <c r="L53" s="2">
+        <v>0</v>
+      </c>
+      <c r="M53" s="2">
+        <v>1344.1</v>
+      </c>
+      <c r="N53" s="2">
+        <v>31</v>
+      </c>
+      <c r="O53" s="2">
+        <v>1224</v>
+      </c>
+      <c r="P53" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>0</v>
+      </c>
+      <c r="R53" s="2">
+        <v>1224</v>
+      </c>
+      <c r="S53" s="2">
+        <v>0</v>
+      </c>
+      <c r="T53" s="2">
+        <v>0</v>
+      </c>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2">
+        <v>0</v>
+      </c>
+      <c r="X53" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z53" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA53" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB53" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC53" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I54" s="2">
+        <v>150</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K54" s="2">
+        <v>37</v>
+      </c>
+      <c r="L54" s="2">
+        <v>0</v>
+      </c>
+      <c r="M54" s="2">
+        <v>37</v>
+      </c>
+      <c r="N54" s="2">
+        <v>0</v>
+      </c>
+      <c r="O54" s="2">
+        <v>23</v>
+      </c>
+      <c r="P54" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>0</v>
+      </c>
+      <c r="R54" s="2">
+        <v>23</v>
+      </c>
+      <c r="S54" s="2">
+        <v>0</v>
+      </c>
+      <c r="T54" s="2">
+        <v>0</v>
+      </c>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2">
+        <v>0</v>
+      </c>
+      <c r="X54" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z54" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA54" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB54" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC54" s="2"/>
+    </row>
+    <row r="55" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I55" s="2">
+        <v>200</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K55" s="2">
+        <v>1329</v>
+      </c>
+      <c r="L55" s="2">
+        <v>0</v>
+      </c>
+      <c r="M55" s="2">
+        <v>1329.05</v>
+      </c>
+      <c r="N55" s="2">
+        <v>0</v>
+      </c>
+      <c r="O55" s="2">
+        <v>1183</v>
+      </c>
+      <c r="P55" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>0</v>
+      </c>
+      <c r="R55" s="2">
+        <v>1183</v>
+      </c>
+      <c r="S55" s="2">
+        <v>0</v>
+      </c>
+      <c r="T55" s="2">
+        <v>0</v>
+      </c>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2">
+        <v>0</v>
+      </c>
+      <c r="X55" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z55" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA55" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB55" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC55" s="2"/>
+    </row>
+    <row r="56" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I56" s="2">
+        <v>150</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K56" s="2">
+        <v>31</v>
+      </c>
+      <c r="L56" s="2">
+        <v>0</v>
+      </c>
+      <c r="M56" s="2">
+        <v>31</v>
+      </c>
+      <c r="N56" s="2">
+        <v>0</v>
+      </c>
+      <c r="O56" s="2">
+        <v>22</v>
+      </c>
+      <c r="P56" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>0</v>
+      </c>
+      <c r="R56" s="2">
+        <v>22</v>
+      </c>
+      <c r="S56" s="2">
+        <v>0</v>
+      </c>
+      <c r="T56" s="2">
+        <v>0</v>
+      </c>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2">
+        <v>0</v>
+      </c>
+      <c r="X56" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z56" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA56" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB56" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC56" s="2"/>
+    </row>
+    <row r="57" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I57" s="2">
+        <v>340</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K57" s="2">
+        <v>744</v>
+      </c>
+      <c r="L57" s="2">
+        <v>0</v>
+      </c>
+      <c r="M57" s="2">
+        <v>743.8</v>
+      </c>
+      <c r="N57" s="2">
+        <v>0</v>
+      </c>
+      <c r="O57" s="2">
+        <v>655</v>
+      </c>
+      <c r="P57" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>0</v>
+      </c>
+      <c r="R57" s="2">
+        <v>655</v>
+      </c>
+      <c r="S57" s="2">
+        <v>0</v>
+      </c>
+      <c r="T57" s="2">
+        <v>0</v>
+      </c>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2">
+        <v>0</v>
+      </c>
+      <c r="X57" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z57" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA57" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB57" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC57" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I58" s="2">
+        <v>460</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K58" s="2">
+        <v>139</v>
+      </c>
+      <c r="L58" s="2">
+        <v>0</v>
+      </c>
+      <c r="M58" s="2">
+        <v>139</v>
+      </c>
+      <c r="N58" s="2">
+        <v>0</v>
+      </c>
+      <c r="O58" s="2">
+        <v>125</v>
+      </c>
+      <c r="P58" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>0</v>
+      </c>
+      <c r="R58" s="2">
+        <v>125</v>
+      </c>
+      <c r="S58" s="2">
+        <v>0</v>
+      </c>
+      <c r="T58" s="2">
+        <v>0</v>
+      </c>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2">
+        <v>0</v>
+      </c>
+      <c r="X58" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z58" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA58" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB58" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC58" s="2"/>
+    </row>
+    <row r="59" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I59" s="2">
+        <v>150</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K59" s="2">
+        <v>13</v>
+      </c>
+      <c r="L59" s="2">
+        <v>0</v>
+      </c>
+      <c r="M59" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="N59" s="2">
+        <v>1</v>
+      </c>
+      <c r="O59" s="2">
+        <v>9</v>
+      </c>
+      <c r="P59" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>0</v>
+      </c>
+      <c r="R59" s="2">
+        <v>9</v>
+      </c>
+      <c r="S59" s="2">
+        <v>0</v>
+      </c>
+      <c r="T59" s="2">
+        <v>0</v>
+      </c>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2">
+        <v>0</v>
+      </c>
+      <c r="X59" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z59" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA59" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB59" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC59" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AC29" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="2025/9802"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/color_wise_output.xlsx
+++ b/color_wise_output.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1. Work\test\Fabric_Followup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D6B86F-FBAE-4D3E-9AC1-02BC4C876667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0F05EC-4B93-4359-878D-A1380500B7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -503,7 +514,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,6 +526,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -552,12 +569,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -865,7 +885,7 @@
   <dimension ref="A1:AC59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,7 +983,7 @@
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="2" t="s">

--- a/color_wise_output.xlsx
+++ b/color_wise_output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1. Work\test\Fabric_Followup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0F05EC-4B93-4359-878D-A1380500B7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C27E28-0765-4BC2-A658-59CB6D7E96E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -514,7 +514,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,12 +526,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -577,7 +571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
